--- a/DATA/Grades/Second Year/2nd Year/1st Sem/BSIT 2B_PE12.xlsx
+++ b/DATA/Grades/Second Year/2nd Year/1st Sem/BSIT 2B_PE12.xlsx
@@ -9,7 +9,7 @@
     <sheet state="hidden" name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">sample!$A$12:$Z$45</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">sample!$A$12:$Z$44</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'BSIT 4O'!$A$12:$AL$45</definedName>
   </definedNames>
   <calcPr/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>BULACAN STATE UNIVERSITY</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Lim, Herman Jr.</t>
-  </si>
-  <si>
-    <t>Lopez, Jasper</t>
   </si>
   <si>
     <t>Lorenzo, Princess</t>
@@ -494,7 +491,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -579,6 +576,10 @@
       <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -717,7 +718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border/>
     <border>
       <left style="medium">
@@ -944,6 +945,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1005,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1169,42 +1181,48 @@
     <xf borderId="22" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="23" fillId="8" fontId="13" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="23" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="8" fontId="13" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="24" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="5" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="9" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="9" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="10" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="10" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="11" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="11" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="11" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="11" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="8" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="8" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1217,7 +1235,7 @@
     <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="24" fillId="12" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="25" fillId="12" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="5" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1236,7 +1254,7 @@
     <xf borderId="21" fillId="14" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="25" fillId="12" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="12" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf borderId="21" fillId="15" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -1245,11 +1263,11 @@
     <xf borderId="21" fillId="15" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="23" fillId="12" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="12" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="16" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1284,42 +1302,42 @@
     <xf borderId="22" fillId="15" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="17" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="14" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="14" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="14" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="14" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="14" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="14" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="12" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="12" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="15" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="15" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="15" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="15" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="15" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="15" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="15" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="15" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1328,14 +1346,14 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1350,14 +1368,20 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1365,19 +1389,13 @@
     <xf borderId="0" fillId="0" fontId="20" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2238,7 +2256,7 @@
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="55">
-        <f t="shared" ref="F13:F45" si="1">X13</f>
+        <f t="shared" ref="F13:F44" si="1">X13</f>
         <v>1.75</v>
       </c>
       <c r="G13" s="56">
@@ -2251,7 +2269,7 @@
         <v>149.0</v>
       </c>
       <c r="J13" s="57">
-        <f t="shared" ref="J13:J45" si="2">SUM(G13:I13)/SUM($G$11:$I$11)*50+50</f>
+        <f t="shared" ref="J13:J44" si="2">SUM(G13:I13)/SUM($G$11:$I$11)*50+50</f>
         <v>83.52272727</v>
       </c>
       <c r="K13" s="58">
@@ -2261,7 +2279,7 @@
         <v>43.0</v>
       </c>
       <c r="M13" s="59">
-        <f t="shared" ref="M13:M45" si="3">SUM(K13:L13)/SUM($K$11:$L$11)*50+50</f>
+        <f t="shared" ref="M13:M44" si="3">SUM(K13:L13)/SUM($K$11:$L$11)*50+50</f>
         <v>81.66666667</v>
       </c>
       <c r="N13" s="60">
@@ -2274,14 +2292,14 @@
         <v>96.0</v>
       </c>
       <c r="Q13" s="61">
-        <f t="shared" ref="Q13:Q45" si="4">SUM(N13:P13)/SUM($N$11:$P$11)*50+50</f>
+        <f t="shared" ref="Q13:Q44" si="4">SUM(N13:P13)/SUM($N$11:$P$11)*50+50</f>
         <v>98.16513761</v>
       </c>
       <c r="R13" s="62">
         <v>10.0</v>
       </c>
       <c r="S13" s="63">
-        <f t="shared" ref="S13:S45" si="5">SUM(R13)/SUM($R$11)*50+50</f>
+        <f t="shared" ref="S13:S44" si="5">SUM(R13)/SUM($R$11)*50+50</f>
         <v>100</v>
       </c>
       <c r="T13" s="64">
@@ -2291,11 +2309,11 @@
         <v>98.0</v>
       </c>
       <c r="V13" s="65">
-        <f t="shared" ref="V13:V45" si="6">(T13/$T$11*50+50)*0.5+(U13/$U$11*50+50)*0.5</f>
+        <f t="shared" ref="V13:V44" si="6">(T13/$T$11*50+50)*0.5+(U13/$U$11*50+50)*0.5</f>
         <v>96</v>
       </c>
       <c r="W13" s="66">
-        <f t="shared" ref="W13:W45" si="7">(J13*0.3)+(M13*0.2)+(Q13*0.15)+(S13*0.05)+(V13*0.3)</f>
+        <f t="shared" ref="W13:W44" si="7">(J13*0.3)+(M13*0.2)+(Q13*0.15)+(S13*0.05)+(V13*0.3)</f>
         <v>89.91492216</v>
       </c>
       <c r="X13" s="66">
@@ -2303,7 +2321,7 @@
         <v>1.75</v>
       </c>
       <c r="Y13" s="66" t="str">
-        <f t="shared" ref="Y13:Y45" si="8">IF(X13&lt;=3,"Passed","Failed")</f>
+        <f t="shared" ref="Y13:Y44" si="8">IF(X13&lt;=3,"Passed","Failed")</f>
         <v>Passed</v>
       </c>
       <c r="Z13" s="66"/>
@@ -3497,14 +3515,14 @@
       <c r="Z27" s="66"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="52">
+      <c r="A28" s="67">
         <v>16.0</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="53">
-        <v>2.02111529E9</v>
+        <v>2.021115084E9</v>
       </c>
       <c r="D28" s="54" t="s">
         <v>41</v>
@@ -3515,27 +3533,27 @@
         <v>1.75</v>
       </c>
       <c r="G28" s="56">
-        <v>105.0</v>
+        <v>65.0</v>
       </c>
       <c r="H28" s="56">
-        <v>111.0</v>
+        <v>80.0</v>
       </c>
       <c r="I28" s="56">
-        <v>101.0</v>
+        <v>123.0</v>
       </c>
       <c r="J28" s="57">
         <f t="shared" si="2"/>
-        <v>86.02272727</v>
+        <v>80.45454545</v>
       </c>
       <c r="K28" s="58">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="L28" s="58">
-        <v>45.0</v>
+        <v>59.0</v>
       </c>
       <c r="M28" s="59">
         <f t="shared" si="3"/>
-        <v>91.66666667</v>
+        <v>98.75</v>
       </c>
       <c r="N28" s="60">
         <v>2.0</v>
@@ -3544,11 +3562,11 @@
         <v>7.0</v>
       </c>
       <c r="P28" s="60">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
       <c r="Q28" s="61">
         <f t="shared" si="4"/>
-        <v>84.86238532</v>
+        <v>89.90825688</v>
       </c>
       <c r="R28" s="62">
         <v>10.0</v>
@@ -3558,18 +3576,18 @@
         <v>100</v>
       </c>
       <c r="T28" s="64">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
       <c r="U28" s="64">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="V28" s="65">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>90.75</v>
       </c>
       <c r="W28" s="66">
         <f t="shared" si="7"/>
-        <v>88.26950931</v>
+        <v>89.59760217</v>
       </c>
       <c r="X28" s="66">
         <f>VLOOKUP(W28,'Grade Range'!$A$2:$B$11,2)</f>
@@ -3582,14 +3600,14 @@
       <c r="Z28" s="66"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="52">
+      <c r="A29" s="68">
         <v>17.0</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="53">
-        <v>2.021115084E9</v>
+        <v>2.021115039E9</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>42</v>
@@ -3597,30 +3615,30 @@
       <c r="E29" s="54"/>
       <c r="F29" s="55">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G29" s="56">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
       <c r="H29" s="56">
-        <v>80.0</v>
+        <v>59.0</v>
       </c>
       <c r="I29" s="56">
-        <v>123.0</v>
+        <v>200.0</v>
       </c>
       <c r="J29" s="57">
         <f t="shared" si="2"/>
-        <v>80.45454545</v>
+        <v>86.36363636</v>
       </c>
       <c r="K29" s="58">
         <v>58.0</v>
       </c>
       <c r="L29" s="58">
-        <v>59.0</v>
+        <v>43.0</v>
       </c>
       <c r="M29" s="59">
         <f t="shared" si="3"/>
-        <v>98.75</v>
+        <v>92.08333333</v>
       </c>
       <c r="N29" s="60">
         <v>2.0</v>
@@ -3629,11 +3647,11 @@
         <v>7.0</v>
       </c>
       <c r="P29" s="60">
-        <v>78.0</v>
+        <v>72.0</v>
       </c>
       <c r="Q29" s="61">
         <f t="shared" si="4"/>
-        <v>89.90825688</v>
+        <v>87.1559633</v>
       </c>
       <c r="R29" s="62">
         <v>10.0</v>
@@ -3643,22 +3661,22 @@
         <v>100</v>
       </c>
       <c r="T29" s="64">
-        <v>92.0</v>
+        <v>68.0</v>
       </c>
       <c r="U29" s="64">
-        <v>71.0</v>
+        <v>66.0</v>
       </c>
       <c r="V29" s="65">
         <f t="shared" si="6"/>
-        <v>90.75</v>
+        <v>83.5</v>
       </c>
       <c r="W29" s="66">
         <f t="shared" si="7"/>
-        <v>89.59760217</v>
+        <v>87.44915207</v>
       </c>
       <c r="X29" s="66">
         <f>VLOOKUP(W29,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="66" t="str">
         <f t="shared" si="8"/>
@@ -3667,14 +3685,14 @@
       <c r="Z29" s="66"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="52">
+      <c r="A30" s="68">
         <v>18.0</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="53">
-        <v>2.021115039E9</v>
+        <v>2.021115487E9</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>43</v>
@@ -3682,30 +3700,30 @@
       <c r="E30" s="54"/>
       <c r="F30" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G30" s="56">
-        <v>61.0</v>
+        <v>82.0</v>
       </c>
       <c r="H30" s="56">
-        <v>59.0</v>
+        <v>119.0</v>
       </c>
       <c r="I30" s="56">
-        <v>200.0</v>
+        <v>172.0</v>
       </c>
       <c r="J30" s="57">
         <f t="shared" si="2"/>
-        <v>86.36363636</v>
+        <v>92.38636364</v>
       </c>
       <c r="K30" s="58">
-        <v>58.0</v>
+        <v>48.0</v>
       </c>
       <c r="L30" s="58">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="M30" s="59">
         <f t="shared" si="3"/>
-        <v>92.08333333</v>
+        <v>87.08333333</v>
       </c>
       <c r="N30" s="60">
         <v>2.0</v>
@@ -3714,11 +3732,11 @@
         <v>7.0</v>
       </c>
       <c r="P30" s="60">
-        <v>72.0</v>
+        <v>85.0</v>
       </c>
       <c r="Q30" s="61">
         <f t="shared" si="4"/>
-        <v>87.1559633</v>
+        <v>93.11926606</v>
       </c>
       <c r="R30" s="62">
         <v>10.0</v>
@@ -3728,22 +3746,22 @@
         <v>100</v>
       </c>
       <c r="T30" s="64">
-        <v>68.0</v>
+        <v>60.0</v>
       </c>
       <c r="U30" s="64">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="V30" s="65">
         <f t="shared" si="6"/>
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
       <c r="W30" s="66">
         <f t="shared" si="7"/>
-        <v>87.44915207</v>
+        <v>88.85046567</v>
       </c>
       <c r="X30" s="66">
         <f>VLOOKUP(W30,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y30" s="66" t="str">
         <f t="shared" si="8"/>
@@ -3752,14 +3770,14 @@
       <c r="Z30" s="66"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="52">
+      <c r="A31" s="68">
         <v>19.0</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="53">
-        <v>2.021115487E9</v>
+        <v>2.021115052E9</v>
       </c>
       <c r="D31" s="54" t="s">
         <v>44</v>
@@ -3770,27 +3788,27 @@
         <v>1.75</v>
       </c>
       <c r="G31" s="56">
-        <v>82.0</v>
+        <v>114.0</v>
       </c>
       <c r="H31" s="56">
-        <v>119.0</v>
+        <v>115.0</v>
       </c>
       <c r="I31" s="56">
-        <v>172.0</v>
+        <v>136.0</v>
       </c>
       <c r="J31" s="57">
         <f t="shared" si="2"/>
-        <v>92.38636364</v>
+        <v>91.47727273</v>
       </c>
       <c r="K31" s="58">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="L31" s="58">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="M31" s="59">
         <f t="shared" si="3"/>
-        <v>87.08333333</v>
+        <v>95.41666667</v>
       </c>
       <c r="N31" s="60">
         <v>2.0</v>
@@ -3799,11 +3817,11 @@
         <v>7.0</v>
       </c>
       <c r="P31" s="60">
-        <v>85.0</v>
+        <v>83.0</v>
       </c>
       <c r="Q31" s="61">
         <f t="shared" si="4"/>
-        <v>93.11926606</v>
+        <v>92.20183486</v>
       </c>
       <c r="R31" s="62">
         <v>10.0</v>
@@ -3813,18 +3831,18 @@
         <v>100</v>
       </c>
       <c r="T31" s="64">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="U31" s="64">
-        <v>70.0</v>
+        <v>53.0</v>
       </c>
       <c r="V31" s="65">
         <f t="shared" si="6"/>
-        <v>82.5</v>
+        <v>79.75</v>
       </c>
       <c r="W31" s="66">
         <f t="shared" si="7"/>
-        <v>88.85046567</v>
+        <v>89.28179038</v>
       </c>
       <c r="X31" s="66">
         <f>VLOOKUP(W31,'Grade Range'!$A$2:$B$11,2)</f>
@@ -3837,14 +3855,14 @@
       <c r="Z31" s="66"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="52">
+      <c r="A32" s="68">
         <v>20.0</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="53">
-        <v>2.021115052E9</v>
+        <v>2.021115513E9</v>
       </c>
       <c r="D32" s="54" t="s">
         <v>45</v>
@@ -3855,27 +3873,27 @@
         <v>1.75</v>
       </c>
       <c r="G32" s="56">
-        <v>114.0</v>
+        <v>60.0</v>
       </c>
       <c r="H32" s="56">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
       <c r="I32" s="56">
-        <v>136.0</v>
+        <v>121.0</v>
       </c>
       <c r="J32" s="57">
         <f t="shared" si="2"/>
-        <v>91.47727273</v>
+        <v>82.72727273</v>
       </c>
       <c r="K32" s="58">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="L32" s="58">
-        <v>53.0</v>
+        <v>42.0</v>
       </c>
       <c r="M32" s="59">
         <f t="shared" si="3"/>
-        <v>95.41666667</v>
+        <v>92.5</v>
       </c>
       <c r="N32" s="60">
         <v>2.0</v>
@@ -3884,11 +3902,11 @@
         <v>7.0</v>
       </c>
       <c r="P32" s="60">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="Q32" s="61">
         <f t="shared" si="4"/>
-        <v>92.20183486</v>
+        <v>91.74311927</v>
       </c>
       <c r="R32" s="62">
         <v>10.0</v>
@@ -3898,18 +3916,18 @@
         <v>100</v>
       </c>
       <c r="T32" s="64">
-        <v>66.0</v>
+        <v>57.0</v>
       </c>
       <c r="U32" s="64">
-        <v>53.0</v>
+        <v>95.0</v>
       </c>
       <c r="V32" s="65">
         <f t="shared" si="6"/>
-        <v>79.75</v>
+        <v>88</v>
       </c>
       <c r="W32" s="66">
         <f t="shared" si="7"/>
-        <v>89.28179038</v>
+        <v>88.47964971</v>
       </c>
       <c r="X32" s="66">
         <f>VLOOKUP(W32,'Grade Range'!$A$2:$B$11,2)</f>
@@ -3922,14 +3940,14 @@
       <c r="Z32" s="66"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="52">
+      <c r="A33" s="68">
         <v>21.0</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="53">
-        <v>2.021115513E9</v>
+        <v>2.021116821E9</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>46</v>
@@ -3937,30 +3955,30 @@
       <c r="E33" s="54"/>
       <c r="F33" s="55">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G33" s="56">
-        <v>60.0</v>
+        <v>71.0</v>
       </c>
       <c r="H33" s="56">
-        <v>107.0</v>
+        <v>73.0</v>
       </c>
       <c r="I33" s="56">
-        <v>121.0</v>
+        <v>100.0</v>
       </c>
       <c r="J33" s="57">
         <f t="shared" si="2"/>
-        <v>82.72727273</v>
+        <v>77.72727273</v>
       </c>
       <c r="K33" s="58">
-        <v>60.0</v>
+        <v>39.0</v>
       </c>
       <c r="L33" s="58">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
       <c r="M33" s="59">
         <f t="shared" si="3"/>
-        <v>92.5</v>
+        <v>80.83333333</v>
       </c>
       <c r="N33" s="60">
         <v>2.0</v>
@@ -3969,11 +3987,11 @@
         <v>7.0</v>
       </c>
       <c r="P33" s="60">
-        <v>82.0</v>
+        <v>100.0</v>
       </c>
       <c r="Q33" s="61">
         <f t="shared" si="4"/>
-        <v>91.74311927</v>
+        <v>100</v>
       </c>
       <c r="R33" s="62">
         <v>10.0</v>
@@ -3983,22 +4001,22 @@
         <v>100</v>
       </c>
       <c r="T33" s="64">
-        <v>57.0</v>
+        <v>84.0</v>
       </c>
       <c r="U33" s="64">
-        <v>95.0</v>
+        <v>67.0</v>
       </c>
       <c r="V33" s="65">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>87.75</v>
       </c>
       <c r="W33" s="66">
         <f t="shared" si="7"/>
-        <v>88.47964971</v>
+        <v>85.80984848</v>
       </c>
       <c r="X33" s="66">
         <f>VLOOKUP(W33,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4007,14 +4025,14 @@
       <c r="Z33" s="66"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="52">
+      <c r="A34" s="68">
         <v>22.0</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="53">
-        <v>2.021116821E9</v>
+      <c r="C34" s="69">
+        <v>2.021117155E9</v>
       </c>
       <c r="D34" s="54" t="s">
         <v>47</v>
@@ -4022,30 +4040,30 @@
       <c r="E34" s="54"/>
       <c r="F34" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G34" s="56">
-        <v>71.0</v>
+        <v>101.0</v>
       </c>
       <c r="H34" s="56">
-        <v>73.0</v>
+        <v>50.0</v>
       </c>
       <c r="I34" s="56">
-        <v>100.0</v>
+        <v>158.0</v>
       </c>
       <c r="J34" s="57">
         <f t="shared" si="2"/>
-        <v>77.72727273</v>
+        <v>85.11363636</v>
       </c>
       <c r="K34" s="58">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="L34" s="58">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="M34" s="59">
         <f t="shared" si="3"/>
-        <v>80.83333333</v>
+        <v>89.16666667</v>
       </c>
       <c r="N34" s="60">
         <v>2.0</v>
@@ -4054,11 +4072,11 @@
         <v>7.0</v>
       </c>
       <c r="P34" s="60">
-        <v>100.0</v>
+        <v>52.0</v>
       </c>
       <c r="Q34" s="61">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>77.98165138</v>
       </c>
       <c r="R34" s="62">
         <v>10.0</v>
@@ -4068,22 +4086,22 @@
         <v>100</v>
       </c>
       <c r="T34" s="64">
-        <v>84.0</v>
+        <v>80.0</v>
       </c>
       <c r="U34" s="64">
-        <v>67.0</v>
+        <v>94.0</v>
       </c>
       <c r="V34" s="65">
         <f t="shared" si="6"/>
-        <v>87.75</v>
+        <v>93.5</v>
       </c>
       <c r="W34" s="66">
         <f t="shared" si="7"/>
-        <v>85.80984848</v>
+        <v>88.11467195</v>
       </c>
       <c r="X34" s="66">
         <f>VLOOKUP(W34,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y34" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4092,14 +4110,14 @@
       <c r="Z34" s="66"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="52">
+      <c r="A35" s="68">
         <v>23.0</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="67">
-        <v>2.021117155E9</v>
+      <c r="C35" s="53">
+        <v>2.021115281E9</v>
       </c>
       <c r="D35" s="54" t="s">
         <v>48</v>
@@ -4110,27 +4128,27 @@
         <v>1.75</v>
       </c>
       <c r="G35" s="56">
-        <v>101.0</v>
+        <v>64.0</v>
       </c>
       <c r="H35" s="56">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="I35" s="56">
-        <v>158.0</v>
+        <v>176.0</v>
       </c>
       <c r="J35" s="57">
         <f t="shared" si="2"/>
-        <v>85.11363636</v>
+        <v>83.86363636</v>
       </c>
       <c r="K35" s="58">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
       <c r="L35" s="58">
-        <v>48.0</v>
+        <v>57.0</v>
       </c>
       <c r="M35" s="59">
         <f t="shared" si="3"/>
-        <v>89.16666667</v>
+        <v>97.08333333</v>
       </c>
       <c r="N35" s="60">
         <v>2.0</v>
@@ -4139,11 +4157,11 @@
         <v>7.0</v>
       </c>
       <c r="P35" s="60">
-        <v>52.0</v>
+        <v>59.0</v>
       </c>
       <c r="Q35" s="61">
         <f t="shared" si="4"/>
-        <v>77.98165138</v>
+        <v>81.19266055</v>
       </c>
       <c r="R35" s="62">
         <v>10.0</v>
@@ -4153,18 +4171,18 @@
         <v>100</v>
       </c>
       <c r="T35" s="64">
-        <v>80.0</v>
+        <v>52.0</v>
       </c>
       <c r="U35" s="64">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="V35" s="65">
         <f t="shared" si="6"/>
-        <v>93.5</v>
+        <v>88</v>
       </c>
       <c r="W35" s="66">
         <f t="shared" si="7"/>
-        <v>88.11467195</v>
+        <v>88.15465666</v>
       </c>
       <c r="X35" s="66">
         <f>VLOOKUP(W35,'Grade Range'!$A$2:$B$11,2)</f>
@@ -4177,14 +4195,14 @@
       <c r="Z35" s="66"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="52">
+      <c r="A36" s="68">
         <v>24.0</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="53">
-        <v>2.021115281E9</v>
+        <v>2.021115423E9</v>
       </c>
       <c r="D36" s="54" t="s">
         <v>49</v>
@@ -4195,27 +4213,27 @@
         <v>1.75</v>
       </c>
       <c r="G36" s="56">
-        <v>64.0</v>
+        <v>76.0</v>
       </c>
       <c r="H36" s="56">
-        <v>58.0</v>
+        <v>102.0</v>
       </c>
       <c r="I36" s="56">
-        <v>176.0</v>
+        <v>194.0</v>
       </c>
       <c r="J36" s="57">
         <f t="shared" si="2"/>
-        <v>83.86363636</v>
+        <v>92.27272727</v>
       </c>
       <c r="K36" s="58">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="L36" s="58">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="M36" s="59">
         <f t="shared" si="3"/>
-        <v>97.08333333</v>
+        <v>96.66666667</v>
       </c>
       <c r="N36" s="60">
         <v>2.0</v>
@@ -4224,11 +4242,11 @@
         <v>7.0</v>
       </c>
       <c r="P36" s="60">
-        <v>59.0</v>
+        <v>88.0</v>
       </c>
       <c r="Q36" s="61">
         <f t="shared" si="4"/>
-        <v>81.19266055</v>
+        <v>94.49541284</v>
       </c>
       <c r="R36" s="62">
         <v>10.0</v>
@@ -4238,18 +4256,18 @@
         <v>100</v>
       </c>
       <c r="T36" s="64">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="U36" s="64">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="V36" s="65">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>78.25</v>
       </c>
       <c r="W36" s="66">
         <f t="shared" si="7"/>
-        <v>88.15465666</v>
+        <v>89.66446344</v>
       </c>
       <c r="X36" s="66">
         <f>VLOOKUP(W36,'Grade Range'!$A$2:$B$11,2)</f>
@@ -4262,14 +4280,14 @@
       <c r="Z36" s="66"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="52">
+      <c r="A37" s="68">
         <v>25.0</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="53">
-        <v>2.021115423E9</v>
+        <v>2.02111495E9</v>
       </c>
       <c r="D37" s="54" t="s">
         <v>50</v>
@@ -4277,30 +4295,30 @@
       <c r="E37" s="54"/>
       <c r="F37" s="55">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G37" s="56">
-        <v>76.0</v>
+        <v>50.0</v>
       </c>
       <c r="H37" s="56">
-        <v>102.0</v>
+        <v>86.0</v>
       </c>
       <c r="I37" s="56">
-        <v>194.0</v>
+        <v>179.0</v>
       </c>
       <c r="J37" s="57">
         <f t="shared" si="2"/>
-        <v>92.27272727</v>
+        <v>85.79545455</v>
       </c>
       <c r="K37" s="58">
-        <v>60.0</v>
+        <v>51.0</v>
       </c>
       <c r="L37" s="58">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="M37" s="59">
         <f t="shared" si="3"/>
-        <v>96.66666667</v>
+        <v>89.58333333</v>
       </c>
       <c r="N37" s="60">
         <v>2.0</v>
@@ -4309,11 +4327,11 @@
         <v>7.0</v>
       </c>
       <c r="P37" s="60">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="Q37" s="61">
         <f t="shared" si="4"/>
-        <v>94.49541284</v>
+        <v>95.41284404</v>
       </c>
       <c r="R37" s="62">
         <v>10.0</v>
@@ -4323,22 +4341,22 @@
         <v>100</v>
       </c>
       <c r="T37" s="64">
-        <v>53.0</v>
+        <v>65.0</v>
       </c>
       <c r="U37" s="64">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="V37" s="65">
         <f t="shared" si="6"/>
-        <v>78.25</v>
+        <v>78.75</v>
       </c>
       <c r="W37" s="66">
         <f t="shared" si="7"/>
-        <v>89.66446344</v>
+        <v>86.59222964</v>
       </c>
       <c r="X37" s="66">
         <f>VLOOKUP(W37,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4347,14 +4365,14 @@
       <c r="Z37" s="66"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="52">
+      <c r="A38" s="68">
         <v>26.0</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="53">
-        <v>2.02111495E9</v>
+        <v>2.021115369E9</v>
       </c>
       <c r="D38" s="54" t="s">
         <v>51</v>
@@ -4362,30 +4380,30 @@
       <c r="E38" s="54"/>
       <c r="F38" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G38" s="56">
-        <v>50.0</v>
+        <v>79.0</v>
       </c>
       <c r="H38" s="56">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="I38" s="56">
-        <v>179.0</v>
+        <v>153.0</v>
       </c>
       <c r="J38" s="57">
         <f t="shared" si="2"/>
-        <v>85.79545455</v>
+        <v>86.47727273</v>
       </c>
       <c r="K38" s="58">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="L38" s="58">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="M38" s="59">
         <f t="shared" si="3"/>
-        <v>89.58333333</v>
+        <v>87.08333333</v>
       </c>
       <c r="N38" s="60">
         <v>2.0</v>
@@ -4394,11 +4412,11 @@
         <v>7.0</v>
       </c>
       <c r="P38" s="60">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
       <c r="Q38" s="61">
         <f t="shared" si="4"/>
-        <v>95.41284404</v>
+        <v>87.6146789</v>
       </c>
       <c r="R38" s="62">
         <v>10.0</v>
@@ -4408,22 +4426,22 @@
         <v>100</v>
       </c>
       <c r="T38" s="64">
-        <v>65.0</v>
+        <v>100.0</v>
       </c>
       <c r="U38" s="64">
-        <v>50.0</v>
+        <v>61.0</v>
       </c>
       <c r="V38" s="65">
         <f t="shared" si="6"/>
-        <v>78.75</v>
+        <v>90.25</v>
       </c>
       <c r="W38" s="66">
         <f t="shared" si="7"/>
-        <v>86.59222964</v>
+        <v>88.57705032</v>
       </c>
       <c r="X38" s="66">
         <f>VLOOKUP(W38,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y38" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4432,14 +4450,14 @@
       <c r="Z38" s="66"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="52">
+      <c r="A39" s="68">
         <v>27.0</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="53">
-        <v>2.021115369E9</v>
+        <v>2.021114974E9</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>52</v>
@@ -4447,30 +4465,30 @@
       <c r="E39" s="54"/>
       <c r="F39" s="55">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G39" s="56">
-        <v>79.0</v>
+        <v>75.0</v>
       </c>
       <c r="H39" s="56">
-        <v>89.0</v>
+        <v>61.0</v>
       </c>
       <c r="I39" s="56">
-        <v>153.0</v>
+        <v>169.0</v>
       </c>
       <c r="J39" s="57">
         <f t="shared" si="2"/>
-        <v>86.47727273</v>
+        <v>84.65909091</v>
       </c>
       <c r="K39" s="58">
-        <v>57.0</v>
+        <v>40.0</v>
       </c>
       <c r="L39" s="58">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="M39" s="59">
         <f t="shared" si="3"/>
-        <v>87.08333333</v>
+        <v>82.5</v>
       </c>
       <c r="N39" s="60">
         <v>2.0</v>
@@ -4479,11 +4497,11 @@
         <v>7.0</v>
       </c>
       <c r="P39" s="60">
-        <v>73.0</v>
+        <v>63.0</v>
       </c>
       <c r="Q39" s="61">
         <f t="shared" si="4"/>
-        <v>87.6146789</v>
+        <v>83.02752294</v>
       </c>
       <c r="R39" s="62">
         <v>10.0</v>
@@ -4493,22 +4511,22 @@
         <v>100</v>
       </c>
       <c r="T39" s="64">
-        <v>100.0</v>
+        <v>79.0</v>
       </c>
       <c r="U39" s="64">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
       <c r="V39" s="65">
         <f t="shared" si="6"/>
-        <v>90.25</v>
+        <v>91.5</v>
       </c>
       <c r="W39" s="66">
         <f t="shared" si="7"/>
-        <v>88.57705032</v>
+        <v>86.80185571</v>
       </c>
       <c r="X39" s="66">
         <f>VLOOKUP(W39,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4517,14 +4535,14 @@
       <c r="Z39" s="66"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="52">
+      <c r="A40" s="68">
         <v>28.0</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="53">
-        <v>2.021114974E9</v>
+        <v>2.021115435E9</v>
       </c>
       <c r="D40" s="54" t="s">
         <v>53</v>
@@ -4532,30 +4550,30 @@
       <c r="E40" s="54"/>
       <c r="F40" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G40" s="56">
-        <v>75.0</v>
+        <v>119.0</v>
       </c>
       <c r="H40" s="56">
-        <v>61.0</v>
+        <v>72.0</v>
       </c>
       <c r="I40" s="56">
-        <v>169.0</v>
+        <v>157.0</v>
       </c>
       <c r="J40" s="57">
         <f t="shared" si="2"/>
-        <v>84.65909091</v>
+        <v>89.54545455</v>
       </c>
       <c r="K40" s="58">
-        <v>40.0</v>
+        <v>51.0</v>
       </c>
       <c r="L40" s="58">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="M40" s="59">
         <f t="shared" si="3"/>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="N40" s="60">
         <v>2.0</v>
@@ -4564,11 +4582,11 @@
         <v>7.0</v>
       </c>
       <c r="P40" s="60">
-        <v>63.0</v>
+        <v>84.0</v>
       </c>
       <c r="Q40" s="61">
         <f t="shared" si="4"/>
-        <v>83.02752294</v>
+        <v>92.66055046</v>
       </c>
       <c r="R40" s="62">
         <v>10.0</v>
@@ -4578,22 +4596,22 @@
         <v>100</v>
       </c>
       <c r="T40" s="64">
-        <v>79.0</v>
+        <v>62.0</v>
       </c>
       <c r="U40" s="64">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="V40" s="65">
         <f t="shared" si="6"/>
-        <v>91.5</v>
+        <v>88</v>
       </c>
       <c r="W40" s="66">
         <f t="shared" si="7"/>
-        <v>86.80185571</v>
+        <v>89.16271893</v>
       </c>
       <c r="X40" s="66">
         <f>VLOOKUP(W40,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y40" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4602,14 +4620,14 @@
       <c r="Z40" s="66"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="52">
+      <c r="A41" s="68">
         <v>29.0</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="53">
-        <v>2.021115435E9</v>
+        <v>2.021115436E9</v>
       </c>
       <c r="D41" s="54" t="s">
         <v>54</v>
@@ -4617,30 +4635,30 @@
       <c r="E41" s="54"/>
       <c r="F41" s="55">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="G41" s="56">
-        <v>119.0</v>
+        <v>116.0</v>
       </c>
       <c r="H41" s="56">
-        <v>72.0</v>
+        <v>96.0</v>
       </c>
       <c r="I41" s="56">
-        <v>157.0</v>
+        <v>175.0</v>
       </c>
       <c r="J41" s="57">
         <f t="shared" si="2"/>
-        <v>89.54545455</v>
+        <v>93.97727273</v>
       </c>
       <c r="K41" s="58">
-        <v>51.0</v>
+        <v>38.0</v>
       </c>
       <c r="L41" s="58">
-        <v>33.0</v>
+        <v>47.0</v>
       </c>
       <c r="M41" s="59">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>85.41666667</v>
       </c>
       <c r="N41" s="60">
         <v>2.0</v>
@@ -4649,11 +4667,11 @@
         <v>7.0</v>
       </c>
       <c r="P41" s="60">
-        <v>84.0</v>
+        <v>95.0</v>
       </c>
       <c r="Q41" s="61">
         <f t="shared" si="4"/>
-        <v>92.66055046</v>
+        <v>97.70642202</v>
       </c>
       <c r="R41" s="62">
         <v>10.0</v>
@@ -4663,22 +4681,22 @@
         <v>100</v>
       </c>
       <c r="T41" s="64">
-        <v>62.0</v>
+        <v>78.0</v>
       </c>
       <c r="U41" s="64">
-        <v>90.0</v>
+        <v>99.0</v>
       </c>
       <c r="V41" s="65">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>94.25</v>
       </c>
       <c r="W41" s="66">
         <f t="shared" si="7"/>
-        <v>89.16271893</v>
+        <v>93.20747845</v>
       </c>
       <c r="X41" s="66">
         <f>VLOOKUP(W41,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y41" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4687,14 +4705,14 @@
       <c r="Z41" s="66"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="52">
+      <c r="A42" s="68">
         <v>30.0</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="53">
-        <v>2.021115436E9</v>
+        <v>2.02111529E9</v>
       </c>
       <c r="D42" s="54" t="s">
         <v>55</v>
@@ -4702,30 +4720,30 @@
       <c r="E42" s="54"/>
       <c r="F42" s="55">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G42" s="56">
-        <v>116.0</v>
+        <v>98.0</v>
       </c>
       <c r="H42" s="56">
-        <v>96.0</v>
+        <v>90.0</v>
       </c>
       <c r="I42" s="56">
-        <v>175.0</v>
+        <v>150.0</v>
       </c>
       <c r="J42" s="57">
         <f t="shared" si="2"/>
-        <v>93.97727273</v>
+        <v>88.40909091</v>
       </c>
       <c r="K42" s="58">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="L42" s="58">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="M42" s="59">
         <f t="shared" si="3"/>
-        <v>85.41666667</v>
+        <v>86.25</v>
       </c>
       <c r="N42" s="60">
         <v>2.0</v>
@@ -4734,11 +4752,11 @@
         <v>7.0</v>
       </c>
       <c r="P42" s="60">
-        <v>95.0</v>
+        <v>76.0</v>
       </c>
       <c r="Q42" s="61">
         <f t="shared" si="4"/>
-        <v>97.70642202</v>
+        <v>88.99082569</v>
       </c>
       <c r="R42" s="62">
         <v>10.0</v>
@@ -4748,22 +4766,22 @@
         <v>100</v>
       </c>
       <c r="T42" s="64">
-        <v>78.0</v>
+        <v>85.0</v>
       </c>
       <c r="U42" s="64">
-        <v>99.0</v>
+        <v>57.0</v>
       </c>
       <c r="V42" s="65">
         <f t="shared" si="6"/>
-        <v>94.25</v>
+        <v>85.5</v>
       </c>
       <c r="W42" s="66">
         <f t="shared" si="7"/>
-        <v>93.20747845</v>
+        <v>87.77135113</v>
       </c>
       <c r="X42" s="66">
         <f>VLOOKUP(W42,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y42" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4772,14 +4790,14 @@
       <c r="Z42" s="66"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="52">
+      <c r="A43" s="68">
         <v>31.0</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="53">
-        <v>2.02111529E9</v>
+        <v>2.021114912E9</v>
       </c>
       <c r="D43" s="54" t="s">
         <v>56</v>
@@ -4790,27 +4808,27 @@
         <v>2</v>
       </c>
       <c r="G43" s="56">
-        <v>98.0</v>
+        <v>115.0</v>
       </c>
       <c r="H43" s="56">
-        <v>90.0</v>
+        <v>79.0</v>
       </c>
       <c r="I43" s="56">
-        <v>150.0</v>
+        <v>114.0</v>
       </c>
       <c r="J43" s="57">
         <f t="shared" si="2"/>
-        <v>88.40909091</v>
+        <v>85</v>
       </c>
       <c r="K43" s="58">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="L43" s="58">
-        <v>42.0</v>
+        <v>57.0</v>
       </c>
       <c r="M43" s="59">
         <f t="shared" si="3"/>
-        <v>86.25</v>
+        <v>90.83333333</v>
       </c>
       <c r="N43" s="60">
         <v>2.0</v>
@@ -4819,11 +4837,11 @@
         <v>7.0</v>
       </c>
       <c r="P43" s="60">
-        <v>76.0</v>
+        <v>65.0</v>
       </c>
       <c r="Q43" s="61">
         <f t="shared" si="4"/>
-        <v>88.99082569</v>
+        <v>83.94495413</v>
       </c>
       <c r="R43" s="62">
         <v>10.0</v>
@@ -4833,18 +4851,18 @@
         <v>100</v>
       </c>
       <c r="T43" s="64">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="U43" s="64">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
       <c r="V43" s="65">
         <f t="shared" si="6"/>
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="W43" s="66">
         <f t="shared" si="7"/>
-        <v>87.77135113</v>
+        <v>86.60840979</v>
       </c>
       <c r="X43" s="66">
         <f>VLOOKUP(W43,'Grade Range'!$A$2:$B$11,2)</f>
@@ -4857,14 +4875,14 @@
       <c r="Z43" s="66"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="52">
+      <c r="A44" s="68">
         <v>32.0</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="53">
-        <v>2.021114912E9</v>
+        <v>2.021115275E9</v>
       </c>
       <c r="D44" s="54" t="s">
         <v>57</v>
@@ -4872,30 +4890,30 @@
       <c r="E44" s="54"/>
       <c r="F44" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G44" s="56">
-        <v>115.0</v>
+        <v>120.0</v>
       </c>
       <c r="H44" s="56">
-        <v>79.0</v>
+        <v>108.0</v>
       </c>
       <c r="I44" s="56">
-        <v>114.0</v>
+        <v>182.0</v>
       </c>
       <c r="J44" s="57">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>96.59090909</v>
       </c>
       <c r="K44" s="58">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
       <c r="L44" s="58">
-        <v>57.0</v>
+        <v>44.0</v>
       </c>
       <c r="M44" s="59">
         <f t="shared" si="3"/>
-        <v>90.83333333</v>
+        <v>80.83333333</v>
       </c>
       <c r="N44" s="60">
         <v>2.0</v>
@@ -4904,11 +4922,11 @@
         <v>7.0</v>
       </c>
       <c r="P44" s="60">
-        <v>65.0</v>
+        <v>89.0</v>
       </c>
       <c r="Q44" s="61">
         <f t="shared" si="4"/>
-        <v>83.94495413</v>
+        <v>94.95412844</v>
       </c>
       <c r="R44" s="62">
         <v>10.0</v>
@@ -4918,22 +4936,22 @@
         <v>100</v>
       </c>
       <c r="T44" s="64">
-        <v>87.0</v>
+        <v>72.0</v>
       </c>
       <c r="U44" s="64">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="V44" s="65">
         <f t="shared" si="6"/>
-        <v>84.5</v>
+        <v>82.5</v>
       </c>
       <c r="W44" s="66">
         <f t="shared" si="7"/>
-        <v>86.60840979</v>
+        <v>89.13705866</v>
       </c>
       <c r="X44" s="66">
         <f>VLOOKUP(W44,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y44" s="66" t="str">
         <f t="shared" si="8"/>
@@ -4942,147 +4960,90 @@
       <c r="Z44" s="66"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="52">
-        <v>33.0</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="53">
-        <v>2.021115275E9</v>
-      </c>
-      <c r="D45" s="54" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+    </row>
+    <row r="46" ht="12.0" customHeight="1">
+      <c r="A46" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G45" s="56">
-        <v>120.0</v>
-      </c>
-      <c r="H45" s="56">
-        <v>108.0</v>
-      </c>
-      <c r="I45" s="56">
-        <v>182.0</v>
-      </c>
-      <c r="J45" s="57">
-        <f t="shared" si="2"/>
-        <v>96.59090909</v>
-      </c>
-      <c r="K45" s="58">
-        <v>30.0</v>
-      </c>
-      <c r="L45" s="58">
-        <v>44.0</v>
-      </c>
-      <c r="M45" s="59">
-        <f t="shared" si="3"/>
-        <v>80.83333333</v>
-      </c>
-      <c r="N45" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="O45" s="60">
-        <v>7.0</v>
-      </c>
-      <c r="P45" s="60">
-        <v>89.0</v>
-      </c>
-      <c r="Q45" s="61">
-        <f t="shared" si="4"/>
-        <v>94.95412844</v>
-      </c>
-      <c r="R45" s="62">
-        <v>10.0</v>
-      </c>
-      <c r="S45" s="63">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T45" s="64">
-        <v>72.0</v>
-      </c>
-      <c r="U45" s="64">
-        <v>58.0</v>
-      </c>
-      <c r="V45" s="65">
-        <f t="shared" si="6"/>
-        <v>82.5</v>
-      </c>
-      <c r="W45" s="66">
-        <f t="shared" si="7"/>
-        <v>89.13705866</v>
-      </c>
-      <c r="X45" s="66">
-        <f>VLOOKUP(W45,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y45" s="66" t="str">
-        <f t="shared" si="8"/>
-        <v>Passed</v>
-      </c>
-      <c r="Z45" s="66"/>
-    </row>
-    <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="77"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="16"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="16"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="7"/>
@@ -5123,12 +5084,6 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -5239,6 +5194,12 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -10626,34 +10587,7 @@
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
     </row>
-    <row r="247" ht="12.0" customHeight="1">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="7"/>
-      <c r="L247" s="7"/>
-      <c r="M247" s="7"/>
-      <c r="N247" s="7"/>
-      <c r="O247" s="7"/>
-      <c r="P247" s="7"/>
-      <c r="Q247" s="7"/>
-      <c r="R247" s="7"/>
-      <c r="S247" s="7"/>
-      <c r="T247" s="7"/>
-      <c r="U247" s="7"/>
-      <c r="V247" s="7"/>
-      <c r="W247" s="7"/>
-      <c r="X247" s="7"/>
-      <c r="Y247" s="7"/>
-      <c r="Z247" s="7"/>
-    </row>
+    <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
     <row r="250" ht="15.75" customHeight="1"/>
@@ -11406,9 +11340,8 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$12:$Z$45"/>
+  <autoFilter ref="$A$12:$Z$44"/>
   <mergeCells count="15">
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="K9:M9"/>
@@ -11424,14 +11357,14 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A47:Z47"/>
+    <mergeCell ref="A46:Z46"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y1:Y40 Y42:Y1000">
+  <conditionalFormatting sqref="Y1:Y39 Y41:Y999">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y41">
+  <conditionalFormatting sqref="Y40">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -11524,8 +11457,8 @@
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>60</v>
+      <c r="A4" s="85" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -11537,7 +11470,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -11570,7 +11503,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -11614,7 +11547,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -11702,63 +11635,63 @@
       <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="84" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="84" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="84" t="s">
+      <c r="N9" s="16"/>
+      <c r="O9" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="85" t="s">
+      <c r="P9" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="86" t="s">
+      <c r="S9" s="16"/>
+      <c r="T9" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="86" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="86" t="s">
+      <c r="W9" s="16"/>
+      <c r="X9" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="86" t="s">
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="86" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="86" t="s">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="86" t="s">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="86" t="s">
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="87" t="s">
         <v>77</v>
-      </c>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="85" t="s">
-        <v>78</v>
       </c>
       <c r="AI9" s="17" t="s">
         <v>17</v>
@@ -11796,58 +11729,58 @@
       <c r="N10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="87"/>
-      <c r="P10" s="88">
+      <c r="O10" s="89"/>
+      <c r="P10" s="90">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="88">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="90">
         <v>1.0</v>
       </c>
-      <c r="S10" s="90" t="s">
+      <c r="S10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="88">
+      <c r="T10" s="90">
         <v>1.0</v>
       </c>
-      <c r="U10" s="90" t="s">
+      <c r="U10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="88">
+      <c r="V10" s="90">
         <v>1.0</v>
       </c>
-      <c r="W10" s="90" t="s">
+      <c r="W10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="X10" s="88">
+      <c r="X10" s="90">
         <v>1.0</v>
       </c>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="88">
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="90">
         <v>1.0</v>
       </c>
-      <c r="AA10" s="90" t="s">
+      <c r="AA10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="88">
+      <c r="AB10" s="90">
         <v>1.0</v>
       </c>
-      <c r="AC10" s="90" t="s">
+      <c r="AC10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AD10" s="88">
+      <c r="AD10" s="90">
         <v>1.0</v>
       </c>
-      <c r="AE10" s="90" t="s">
+      <c r="AE10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AF10" s="88">
+      <c r="AF10" s="90">
         <v>1.0</v>
       </c>
-      <c r="AG10" s="90" t="s">
+      <c r="AG10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AH10" s="87"/>
+      <c r="AH10" s="89"/>
       <c r="AI10" s="28" t="s">
         <v>22</v>
       </c>
@@ -11871,83 +11804,83 @@
       <c r="G11" s="33">
         <v>100.0</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="93">
         <v>0.4</v>
       </c>
       <c r="I11" s="33">
         <v>100.0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="93">
         <v>0.4</v>
       </c>
       <c r="K11" s="33">
         <v>100.0</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="93">
         <v>0.1</v>
       </c>
       <c r="M11" s="33">
         <v>100.0</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N11" s="93">
         <v>0.1</v>
       </c>
-      <c r="O11" s="92"/>
+      <c r="O11" s="94"/>
       <c r="P11" s="33">
         <v>100.0</v>
       </c>
-      <c r="Q11" s="93">
+      <c r="Q11" s="95">
         <v>0.125</v>
       </c>
       <c r="R11" s="33">
         <v>100.0</v>
       </c>
-      <c r="S11" s="94">
+      <c r="S11" s="96">
         <v>0.1</v>
       </c>
       <c r="T11" s="33">
         <v>100.0</v>
       </c>
-      <c r="U11" s="93">
+      <c r="U11" s="95">
         <v>0.075</v>
       </c>
       <c r="V11" s="33">
         <v>100.0</v>
       </c>
-      <c r="W11" s="94">
+      <c r="W11" s="96">
         <v>0.15</v>
       </c>
       <c r="X11" s="33">
         <v>100.0</v>
       </c>
-      <c r="Y11" s="94">
+      <c r="Y11" s="96">
         <v>0.15</v>
       </c>
       <c r="Z11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AA11" s="93">
+      <c r="AA11" s="95">
         <v>0.075</v>
       </c>
       <c r="AB11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AC11" s="94">
+      <c r="AC11" s="96">
         <v>0.1</v>
       </c>
       <c r="AD11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AE11" s="93">
+      <c r="AE11" s="95">
         <v>0.125</v>
       </c>
       <c r="AF11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AG11" s="94">
+      <c r="AG11" s="96">
         <v>0.1</v>
       </c>
-      <c r="AH11" s="92"/>
+      <c r="AH11" s="94"/>
       <c r="AI11" s="41"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="42">
@@ -11971,7 +11904,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="48"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="95"/>
+      <c r="O12" s="97"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="49"/>
       <c r="R12" s="48"/>
@@ -11990,7 +11923,7 @@
       <c r="AE12" s="49"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="95"/>
+      <c r="AH12" s="97"/>
       <c r="AI12" s="50"/>
       <c r="AJ12" s="50"/>
       <c r="AK12" s="50"/>
@@ -12003,85 +11936,85 @@
       <c r="B13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="100"/>
       <c r="F13" s="55">
         <f t="shared" ref="F13:F45" si="1">AJ13</f>
         <v>5</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100">
+      <c r="G13" s="101"/>
+      <c r="H13" s="102">
         <f t="shared" ref="H13:H45" si="2">SUM(G13)/SUM($G$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100">
+      <c r="I13" s="101"/>
+      <c r="J13" s="102">
         <f t="shared" ref="J13:J45" si="3">SUM(I13)/SUM($I$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="102">
+      <c r="K13" s="103"/>
+      <c r="L13" s="104">
         <f t="shared" ref="L13:L45" si="4">SUM(K13)/SUM($K$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="M13" s="103"/>
-      <c r="N13" s="102">
+      <c r="M13" s="105"/>
+      <c r="N13" s="104">
         <f t="shared" ref="N13:N45" si="5">SUM(M13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="O13" s="104">
+      <c r="O13" s="106">
         <f t="shared" ref="O13:O45" si="6">($H13*$H$11)+($J13*$J$11)+($L13*$L$11)+($N13*$N$11)</f>
         <v>50</v>
       </c>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106">
+      <c r="P13" s="107"/>
+      <c r="Q13" s="108">
         <f t="shared" ref="Q13:Q45" si="7">SUM(P13)/SUM($G$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="R13" s="105"/>
-      <c r="S13" s="106">
+      <c r="R13" s="107"/>
+      <c r="S13" s="108">
         <f t="shared" ref="S13:S45" si="8">SUM(R13)/SUM($I$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="T13" s="107"/>
-      <c r="U13" s="108">
+      <c r="T13" s="109"/>
+      <c r="U13" s="110">
         <f t="shared" ref="U13:U45" si="9">SUM(T13)/SUM($K$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="V13" s="109"/>
-      <c r="W13" s="108">
+      <c r="V13" s="111"/>
+      <c r="W13" s="110">
         <f t="shared" ref="W13:W45" si="10">SUM(V13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="106">
+      <c r="X13" s="107"/>
+      <c r="Y13" s="108">
         <f t="shared" ref="Y13:Y45" si="11">SUM(X13)/SUM($G$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="106">
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108">
         <f t="shared" ref="AA13:AA45" si="12">SUM(Z13)/SUM($I$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="108">
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="110">
         <f t="shared" ref="AC13:AC45" si="13">SUM(AB13)/SUM($K$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="108">
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="110">
         <f t="shared" ref="AE13:AE45" si="14">SUM(AD13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="108">
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="110">
         <f t="shared" ref="AG13:AG45" si="15">SUM(AF13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AH13" s="104">
+      <c r="AH13" s="106">
         <f t="shared" ref="AH13:AH45" si="16">($Q13*$Q$11)+($S13*$S$11)+($U13*$U$11)+($W13*$W$11)+($Y13*$Y$11)+($AA13*$AA$11)+($AC13*$AC$11)+($AE13*$AE$11)+($AG13*$AG$11)</f>
         <v>50</v>
       </c>
@@ -12106,85 +12039,85 @@
       <c r="B14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="100"/>
       <c r="F14" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100">
+      <c r="G14" s="101"/>
+      <c r="H14" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100">
+      <c r="I14" s="101"/>
+      <c r="J14" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="102">
+      <c r="K14" s="103"/>
+      <c r="L14" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M14" s="103"/>
-      <c r="N14" s="102">
+      <c r="M14" s="105"/>
+      <c r="N14" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O14" s="104">
+      <c r="O14" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106">
+      <c r="P14" s="107"/>
+      <c r="Q14" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R14" s="105"/>
-      <c r="S14" s="106">
+      <c r="R14" s="107"/>
+      <c r="S14" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T14" s="107"/>
-      <c r="U14" s="108">
+      <c r="T14" s="109"/>
+      <c r="U14" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V14" s="109"/>
-      <c r="W14" s="108">
+      <c r="V14" s="111"/>
+      <c r="W14" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="106">
+      <c r="X14" s="107"/>
+      <c r="Y14" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="106">
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="108">
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="108">
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="108">
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH14" s="104">
+      <c r="AH14" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12209,85 +12142,85 @@
       <c r="B15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="100"/>
       <c r="F15" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100">
+      <c r="G15" s="101"/>
+      <c r="H15" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100">
+      <c r="I15" s="101"/>
+      <c r="J15" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102">
+      <c r="K15" s="103"/>
+      <c r="L15" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M15" s="103"/>
-      <c r="N15" s="102">
+      <c r="M15" s="105"/>
+      <c r="N15" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O15" s="104">
+      <c r="O15" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106">
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R15" s="105"/>
-      <c r="S15" s="106">
+      <c r="R15" s="107"/>
+      <c r="S15" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T15" s="107"/>
-      <c r="U15" s="108">
+      <c r="T15" s="109"/>
+      <c r="U15" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V15" s="109"/>
-      <c r="W15" s="108">
+      <c r="V15" s="111"/>
+      <c r="W15" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="106">
+      <c r="X15" s="107"/>
+      <c r="Y15" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="106">
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108">
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="108">
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="108">
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH15" s="104">
+      <c r="AH15" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12312,85 +12245,85 @@
       <c r="B16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="100"/>
       <c r="F16" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100">
+      <c r="G16" s="101"/>
+      <c r="H16" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100">
+      <c r="I16" s="101"/>
+      <c r="J16" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102">
+      <c r="K16" s="103"/>
+      <c r="L16" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M16" s="103"/>
-      <c r="N16" s="102">
+      <c r="M16" s="105"/>
+      <c r="N16" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O16" s="104">
+      <c r="O16" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="106">
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R16" s="105"/>
-      <c r="S16" s="106">
+      <c r="R16" s="107"/>
+      <c r="S16" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T16" s="107"/>
-      <c r="U16" s="108">
+      <c r="T16" s="109"/>
+      <c r="U16" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V16" s="109"/>
-      <c r="W16" s="108">
+      <c r="V16" s="111"/>
+      <c r="W16" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="106">
+      <c r="X16" s="107"/>
+      <c r="Y16" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="106">
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="108">
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="108">
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="108">
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH16" s="104">
+      <c r="AH16" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12415,85 +12348,85 @@
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="100"/>
       <c r="F17" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100">
+      <c r="G17" s="101"/>
+      <c r="H17" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100">
+      <c r="I17" s="101"/>
+      <c r="J17" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102">
+      <c r="K17" s="103"/>
+      <c r="L17" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M17" s="103"/>
-      <c r="N17" s="102">
+      <c r="M17" s="105"/>
+      <c r="N17" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="106">
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R17" s="105"/>
-      <c r="S17" s="106">
+      <c r="R17" s="107"/>
+      <c r="S17" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T17" s="107"/>
-      <c r="U17" s="108">
+      <c r="T17" s="109"/>
+      <c r="U17" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V17" s="109"/>
-      <c r="W17" s="108">
+      <c r="V17" s="111"/>
+      <c r="W17" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="106">
+      <c r="X17" s="107"/>
+      <c r="Y17" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="106">
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="108">
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="108">
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="108">
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH17" s="104">
+      <c r="AH17" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12518,85 +12451,85 @@
       <c r="B18" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="100"/>
       <c r="F18" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100">
+      <c r="G18" s="101"/>
+      <c r="H18" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100">
+      <c r="I18" s="101"/>
+      <c r="J18" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102">
+      <c r="K18" s="103"/>
+      <c r="L18" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="102">
+      <c r="M18" s="105"/>
+      <c r="N18" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O18" s="104">
+      <c r="O18" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="106">
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R18" s="105"/>
-      <c r="S18" s="106">
+      <c r="R18" s="107"/>
+      <c r="S18" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T18" s="107"/>
-      <c r="U18" s="108">
+      <c r="T18" s="109"/>
+      <c r="U18" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V18" s="109"/>
-      <c r="W18" s="108">
+      <c r="V18" s="111"/>
+      <c r="W18" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="106">
+      <c r="X18" s="107"/>
+      <c r="Y18" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="106">
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108">
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="108">
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="108">
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH18" s="104">
+      <c r="AH18" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12621,85 +12554,85 @@
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="100"/>
       <c r="F19" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100">
+      <c r="G19" s="101"/>
+      <c r="H19" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100">
+      <c r="I19" s="101"/>
+      <c r="J19" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102">
+      <c r="K19" s="103"/>
+      <c r="L19" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="102">
+      <c r="M19" s="105"/>
+      <c r="N19" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="106">
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R19" s="105"/>
-      <c r="S19" s="106">
+      <c r="R19" s="107"/>
+      <c r="S19" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T19" s="107"/>
-      <c r="U19" s="108">
+      <c r="T19" s="109"/>
+      <c r="U19" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V19" s="109"/>
-      <c r="W19" s="108">
+      <c r="V19" s="111"/>
+      <c r="W19" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="106">
+      <c r="X19" s="107"/>
+      <c r="Y19" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="106">
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="108">
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="108">
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="108">
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH19" s="104">
+      <c r="AH19" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12722,85 +12655,85 @@
         <v>8.0</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="100"/>
       <c r="F20" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100">
+      <c r="G20" s="101"/>
+      <c r="H20" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100">
+      <c r="I20" s="101"/>
+      <c r="J20" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="102">
+      <c r="K20" s="103"/>
+      <c r="L20" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="102">
+      <c r="M20" s="105"/>
+      <c r="N20" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O20" s="104">
+      <c r="O20" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="106">
+      <c r="P20" s="107"/>
+      <c r="Q20" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R20" s="105"/>
-      <c r="S20" s="106">
+      <c r="R20" s="107"/>
+      <c r="S20" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T20" s="107"/>
-      <c r="U20" s="108">
+      <c r="T20" s="109"/>
+      <c r="U20" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V20" s="109"/>
-      <c r="W20" s="108">
+      <c r="V20" s="111"/>
+      <c r="W20" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="106">
+      <c r="X20" s="107"/>
+      <c r="Y20" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="106">
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="108">
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="108">
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="108">
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH20" s="104">
+      <c r="AH20" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12825,85 +12758,85 @@
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="100"/>
       <c r="F21" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100">
+      <c r="G21" s="101"/>
+      <c r="H21" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100">
+      <c r="I21" s="101"/>
+      <c r="J21" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102">
+      <c r="K21" s="103"/>
+      <c r="L21" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M21" s="103"/>
-      <c r="N21" s="102">
+      <c r="M21" s="105"/>
+      <c r="N21" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O21" s="104">
+      <c r="O21" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="106">
+      <c r="P21" s="107"/>
+      <c r="Q21" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R21" s="105"/>
-      <c r="S21" s="106">
+      <c r="R21" s="107"/>
+      <c r="S21" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T21" s="107"/>
-      <c r="U21" s="108">
+      <c r="T21" s="109"/>
+      <c r="U21" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V21" s="109"/>
-      <c r="W21" s="108">
+      <c r="V21" s="111"/>
+      <c r="W21" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="106">
+      <c r="X21" s="107"/>
+      <c r="Y21" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="106">
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="108">
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="108">
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="108">
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH21" s="104">
+      <c r="AH21" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -12928,85 +12861,85 @@
       <c r="B22" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="100"/>
       <c r="F22" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100">
+      <c r="G22" s="101"/>
+      <c r="H22" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100">
+      <c r="I22" s="101"/>
+      <c r="J22" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102">
+      <c r="K22" s="103"/>
+      <c r="L22" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M22" s="103"/>
-      <c r="N22" s="102">
+      <c r="M22" s="105"/>
+      <c r="N22" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="106">
+      <c r="P22" s="107"/>
+      <c r="Q22" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R22" s="105"/>
-      <c r="S22" s="106">
+      <c r="R22" s="107"/>
+      <c r="S22" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="108">
+      <c r="T22" s="109"/>
+      <c r="U22" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V22" s="109"/>
-      <c r="W22" s="108">
+      <c r="V22" s="111"/>
+      <c r="W22" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="106">
+      <c r="X22" s="107"/>
+      <c r="Y22" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="106">
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="108">
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="108">
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="108">
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH22" s="104">
+      <c r="AH22" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13031,85 +12964,85 @@
       <c r="B23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="100"/>
       <c r="F23" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100">
+      <c r="G23" s="101"/>
+      <c r="H23" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100">
+      <c r="I23" s="101"/>
+      <c r="J23" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102">
+      <c r="K23" s="103"/>
+      <c r="L23" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M23" s="103"/>
-      <c r="N23" s="102">
+      <c r="M23" s="105"/>
+      <c r="N23" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="106">
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R23" s="105"/>
-      <c r="S23" s="106">
+      <c r="R23" s="107"/>
+      <c r="S23" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T23" s="107"/>
-      <c r="U23" s="108">
+      <c r="T23" s="109"/>
+      <c r="U23" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V23" s="109"/>
-      <c r="W23" s="108">
+      <c r="V23" s="111"/>
+      <c r="W23" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="106">
+      <c r="X23" s="107"/>
+      <c r="Y23" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="106">
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="108">
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="108">
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="108">
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH23" s="104">
+      <c r="AH23" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13134,85 +13067,85 @@
       <c r="B24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="100"/>
       <c r="F24" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100">
+      <c r="G24" s="101"/>
+      <c r="H24" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100">
+      <c r="I24" s="101"/>
+      <c r="J24" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K24" s="101"/>
-      <c r="L24" s="102">
+      <c r="K24" s="103"/>
+      <c r="L24" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M24" s="103"/>
-      <c r="N24" s="102">
+      <c r="M24" s="105"/>
+      <c r="N24" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O24" s="104">
+      <c r="O24" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106">
+      <c r="P24" s="107"/>
+      <c r="Q24" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R24" s="105"/>
-      <c r="S24" s="106">
+      <c r="R24" s="107"/>
+      <c r="S24" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T24" s="107"/>
-      <c r="U24" s="108">
+      <c r="T24" s="109"/>
+      <c r="U24" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V24" s="109"/>
-      <c r="W24" s="108">
+      <c r="V24" s="111"/>
+      <c r="W24" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="106">
+      <c r="X24" s="107"/>
+      <c r="Y24" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="106">
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="108">
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="108">
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF24" s="109"/>
-      <c r="AG24" s="108">
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH24" s="104">
+      <c r="AH24" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13224,7 +13157,7 @@
         <f>VLOOKUP(AI24,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK24" s="111" t="str">
+      <c r="AK24" s="113" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
@@ -13237,85 +13170,85 @@
       <c r="B25" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="100"/>
       <c r="F25" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100">
+      <c r="G25" s="101"/>
+      <c r="H25" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100">
+      <c r="I25" s="101"/>
+      <c r="J25" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102">
+      <c r="K25" s="103"/>
+      <c r="L25" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M25" s="103"/>
-      <c r="N25" s="102">
+      <c r="M25" s="105"/>
+      <c r="N25" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O25" s="104">
+      <c r="O25" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="106">
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R25" s="105"/>
-      <c r="S25" s="106">
+      <c r="R25" s="107"/>
+      <c r="S25" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T25" s="107"/>
-      <c r="U25" s="108">
+      <c r="T25" s="109"/>
+      <c r="U25" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V25" s="109"/>
-      <c r="W25" s="108">
+      <c r="V25" s="111"/>
+      <c r="W25" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="106">
+      <c r="X25" s="107"/>
+      <c r="Y25" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="106">
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="108">
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="108">
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="108">
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH25" s="104">
+      <c r="AH25" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13340,85 +13273,85 @@
       <c r="B26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="100"/>
       <c r="F26" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100">
+      <c r="G26" s="101"/>
+      <c r="H26" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100">
+      <c r="I26" s="101"/>
+      <c r="J26" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102">
+      <c r="K26" s="103"/>
+      <c r="L26" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M26" s="103"/>
-      <c r="N26" s="102">
+      <c r="M26" s="105"/>
+      <c r="N26" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O26" s="104">
+      <c r="O26" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="106">
+      <c r="P26" s="107"/>
+      <c r="Q26" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R26" s="105"/>
-      <c r="S26" s="106">
+      <c r="R26" s="107"/>
+      <c r="S26" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T26" s="107"/>
-      <c r="U26" s="108">
+      <c r="T26" s="109"/>
+      <c r="U26" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V26" s="109"/>
-      <c r="W26" s="108">
+      <c r="V26" s="111"/>
+      <c r="W26" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="106">
+      <c r="X26" s="107"/>
+      <c r="Y26" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="106">
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="108">
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="108">
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="108">
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH26" s="104">
+      <c r="AH26" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13443,85 +13376,85 @@
       <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="100"/>
       <c r="F27" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100">
+      <c r="G27" s="101"/>
+      <c r="H27" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100">
+      <c r="I27" s="101"/>
+      <c r="J27" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K27" s="101"/>
-      <c r="L27" s="102">
+      <c r="K27" s="103"/>
+      <c r="L27" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M27" s="103"/>
-      <c r="N27" s="102">
+      <c r="M27" s="105"/>
+      <c r="N27" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O27" s="104">
+      <c r="O27" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="106">
+      <c r="P27" s="107"/>
+      <c r="Q27" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R27" s="105"/>
-      <c r="S27" s="106">
+      <c r="R27" s="107"/>
+      <c r="S27" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T27" s="107"/>
-      <c r="U27" s="108">
+      <c r="T27" s="109"/>
+      <c r="U27" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V27" s="109"/>
-      <c r="W27" s="108">
+      <c r="V27" s="111"/>
+      <c r="W27" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="106">
+      <c r="X27" s="107"/>
+      <c r="Y27" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="106">
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="108">
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="108">
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="108">
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH27" s="104">
+      <c r="AH27" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13546,85 +13479,85 @@
       <c r="B28" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="100"/>
       <c r="F28" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100">
+      <c r="G28" s="101"/>
+      <c r="H28" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100">
+      <c r="I28" s="101"/>
+      <c r="J28" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K28" s="101"/>
-      <c r="L28" s="102">
+      <c r="K28" s="103"/>
+      <c r="L28" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M28" s="103"/>
-      <c r="N28" s="102">
+      <c r="M28" s="105"/>
+      <c r="N28" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O28" s="104">
+      <c r="O28" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="106">
+      <c r="P28" s="107"/>
+      <c r="Q28" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R28" s="105"/>
-      <c r="S28" s="106">
+      <c r="R28" s="107"/>
+      <c r="S28" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T28" s="107"/>
-      <c r="U28" s="108">
+      <c r="T28" s="109"/>
+      <c r="U28" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V28" s="109"/>
-      <c r="W28" s="108">
+      <c r="V28" s="111"/>
+      <c r="W28" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="106">
+      <c r="X28" s="107"/>
+      <c r="Y28" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="106">
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="108">
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="108">
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="108">
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH28" s="104">
+      <c r="AH28" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13649,85 +13582,85 @@
       <c r="B29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="100"/>
       <c r="F29" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G29" s="99"/>
-      <c r="H29" s="100">
+      <c r="G29" s="101"/>
+      <c r="H29" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100">
+      <c r="I29" s="101"/>
+      <c r="J29" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102">
+      <c r="K29" s="103"/>
+      <c r="L29" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M29" s="103"/>
-      <c r="N29" s="102">
+      <c r="M29" s="105"/>
+      <c r="N29" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O29" s="104">
+      <c r="O29" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="106">
+      <c r="P29" s="107"/>
+      <c r="Q29" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R29" s="105"/>
-      <c r="S29" s="106">
+      <c r="R29" s="107"/>
+      <c r="S29" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T29" s="107"/>
-      <c r="U29" s="108">
+      <c r="T29" s="109"/>
+      <c r="U29" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V29" s="109"/>
-      <c r="W29" s="108">
+      <c r="V29" s="111"/>
+      <c r="W29" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="106">
+      <c r="X29" s="107"/>
+      <c r="Y29" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="106">
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="108">
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="108">
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="108">
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH29" s="104">
+      <c r="AH29" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13752,85 +13685,85 @@
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="100"/>
       <c r="F30" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100">
+      <c r="G30" s="101"/>
+      <c r="H30" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100">
+      <c r="I30" s="101"/>
+      <c r="J30" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102">
+      <c r="K30" s="103"/>
+      <c r="L30" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M30" s="103"/>
-      <c r="N30" s="102">
+      <c r="M30" s="105"/>
+      <c r="N30" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O30" s="104">
+      <c r="O30" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="106">
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R30" s="105"/>
-      <c r="S30" s="106">
+      <c r="R30" s="107"/>
+      <c r="S30" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T30" s="107"/>
-      <c r="U30" s="108">
+      <c r="T30" s="109"/>
+      <c r="U30" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V30" s="109"/>
-      <c r="W30" s="108">
+      <c r="V30" s="111"/>
+      <c r="W30" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="106">
+      <c r="X30" s="107"/>
+      <c r="Y30" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="106">
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108">
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="108">
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="108">
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH30" s="104">
+      <c r="AH30" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13855,85 +13788,85 @@
       <c r="B31" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="100"/>
       <c r="F31" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100">
+      <c r="G31" s="101"/>
+      <c r="H31" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100">
+      <c r="I31" s="101"/>
+      <c r="J31" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102">
+      <c r="K31" s="103"/>
+      <c r="L31" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M31" s="103"/>
-      <c r="N31" s="102">
+      <c r="M31" s="105"/>
+      <c r="N31" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O31" s="104">
+      <c r="O31" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="106">
+      <c r="P31" s="107"/>
+      <c r="Q31" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R31" s="105"/>
-      <c r="S31" s="106">
+      <c r="R31" s="107"/>
+      <c r="S31" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T31" s="107"/>
-      <c r="U31" s="108">
+      <c r="T31" s="109"/>
+      <c r="U31" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V31" s="109"/>
-      <c r="W31" s="108">
+      <c r="V31" s="111"/>
+      <c r="W31" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X31" s="105"/>
-      <c r="Y31" s="106">
+      <c r="X31" s="107"/>
+      <c r="Y31" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="106">
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="108">
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="108">
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF31" s="109"/>
-      <c r="AG31" s="108">
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH31" s="104">
+      <c r="AH31" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -13958,85 +13891,85 @@
       <c r="B32" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="100"/>
       <c r="F32" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100">
+      <c r="G32" s="101"/>
+      <c r="H32" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100">
+      <c r="I32" s="101"/>
+      <c r="J32" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="102">
+      <c r="K32" s="103"/>
+      <c r="L32" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M32" s="103"/>
-      <c r="N32" s="102">
+      <c r="M32" s="105"/>
+      <c r="N32" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O32" s="104">
+      <c r="O32" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="106">
+      <c r="P32" s="107"/>
+      <c r="Q32" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R32" s="105"/>
-      <c r="S32" s="106">
+      <c r="R32" s="107"/>
+      <c r="S32" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T32" s="107"/>
-      <c r="U32" s="108">
+      <c r="T32" s="109"/>
+      <c r="U32" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V32" s="109"/>
-      <c r="W32" s="108">
+      <c r="V32" s="111"/>
+      <c r="W32" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="106">
+      <c r="X32" s="107"/>
+      <c r="Y32" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="106">
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="108">
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="108">
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="108">
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH32" s="104">
+      <c r="AH32" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14061,85 +13994,85 @@
       <c r="B33" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="100"/>
       <c r="F33" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G33" s="99"/>
-      <c r="H33" s="100">
+      <c r="G33" s="101"/>
+      <c r="H33" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100">
+      <c r="I33" s="101"/>
+      <c r="J33" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102">
+      <c r="K33" s="103"/>
+      <c r="L33" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M33" s="103"/>
-      <c r="N33" s="102">
+      <c r="M33" s="105"/>
+      <c r="N33" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O33" s="104">
+      <c r="O33" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="106">
+      <c r="P33" s="107"/>
+      <c r="Q33" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R33" s="105"/>
-      <c r="S33" s="106">
+      <c r="R33" s="107"/>
+      <c r="S33" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T33" s="107"/>
-      <c r="U33" s="108">
+      <c r="T33" s="109"/>
+      <c r="U33" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V33" s="109"/>
-      <c r="W33" s="108">
+      <c r="V33" s="111"/>
+      <c r="W33" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X33" s="105"/>
-      <c r="Y33" s="106">
+      <c r="X33" s="107"/>
+      <c r="Y33" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="106">
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="108">
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="108">
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="108">
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH33" s="104">
+      <c r="AH33" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14164,85 +14097,85 @@
       <c r="B34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="100"/>
       <c r="F34" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G34" s="99"/>
-      <c r="H34" s="100">
+      <c r="G34" s="101"/>
+      <c r="H34" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100">
+      <c r="I34" s="101"/>
+      <c r="J34" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K34" s="101"/>
-      <c r="L34" s="102">
+      <c r="K34" s="103"/>
+      <c r="L34" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M34" s="103"/>
-      <c r="N34" s="102">
+      <c r="M34" s="105"/>
+      <c r="N34" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O34" s="104">
+      <c r="O34" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="106">
+      <c r="P34" s="107"/>
+      <c r="Q34" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R34" s="105"/>
-      <c r="S34" s="106">
+      <c r="R34" s="107"/>
+      <c r="S34" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T34" s="107"/>
-      <c r="U34" s="108">
+      <c r="T34" s="109"/>
+      <c r="U34" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V34" s="109"/>
-      <c r="W34" s="108">
+      <c r="V34" s="111"/>
+      <c r="W34" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="106">
+      <c r="X34" s="107"/>
+      <c r="Y34" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="106">
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="108">
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="108">
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF34" s="109"/>
-      <c r="AG34" s="108">
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH34" s="104">
+      <c r="AH34" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14267,85 +14200,85 @@
       <c r="B35" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="100"/>
       <c r="F35" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100">
+      <c r="G35" s="101"/>
+      <c r="H35" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I35" s="99"/>
-      <c r="J35" s="100">
+      <c r="I35" s="101"/>
+      <c r="J35" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K35" s="101"/>
-      <c r="L35" s="102">
+      <c r="K35" s="103"/>
+      <c r="L35" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M35" s="103"/>
-      <c r="N35" s="102">
+      <c r="M35" s="105"/>
+      <c r="N35" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O35" s="104">
+      <c r="O35" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="106">
+      <c r="P35" s="107"/>
+      <c r="Q35" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R35" s="105"/>
-      <c r="S35" s="106">
+      <c r="R35" s="107"/>
+      <c r="S35" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T35" s="107"/>
-      <c r="U35" s="108">
+      <c r="T35" s="109"/>
+      <c r="U35" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V35" s="109"/>
-      <c r="W35" s="108">
+      <c r="V35" s="111"/>
+      <c r="W35" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X35" s="105"/>
-      <c r="Y35" s="106">
+      <c r="X35" s="107"/>
+      <c r="Y35" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z35" s="105"/>
-      <c r="AA35" s="106">
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="108">
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="108">
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="108">
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH35" s="104">
+      <c r="AH35" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14370,85 +14303,85 @@
       <c r="B36" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="100"/>
       <c r="F36" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G36" s="99"/>
-      <c r="H36" s="100">
+      <c r="G36" s="101"/>
+      <c r="H36" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100">
+      <c r="I36" s="101"/>
+      <c r="J36" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="102">
+      <c r="K36" s="103"/>
+      <c r="L36" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M36" s="103"/>
-      <c r="N36" s="102">
+      <c r="M36" s="105"/>
+      <c r="N36" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O36" s="104">
+      <c r="O36" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="106">
+      <c r="P36" s="107"/>
+      <c r="Q36" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R36" s="105"/>
-      <c r="S36" s="106">
+      <c r="R36" s="107"/>
+      <c r="S36" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T36" s="107"/>
-      <c r="U36" s="108">
+      <c r="T36" s="109"/>
+      <c r="U36" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V36" s="109"/>
-      <c r="W36" s="108">
+      <c r="V36" s="111"/>
+      <c r="W36" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="106">
+      <c r="X36" s="107"/>
+      <c r="Y36" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z36" s="105"/>
-      <c r="AA36" s="106">
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="108">
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="108">
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="108">
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH36" s="104">
+      <c r="AH36" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14473,85 +14406,85 @@
       <c r="B37" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="100"/>
       <c r="F37" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G37" s="99"/>
-      <c r="H37" s="100">
+      <c r="G37" s="101"/>
+      <c r="H37" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I37" s="99"/>
-      <c r="J37" s="100">
+      <c r="I37" s="101"/>
+      <c r="J37" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K37" s="101"/>
-      <c r="L37" s="102">
+      <c r="K37" s="103"/>
+      <c r="L37" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M37" s="103"/>
-      <c r="N37" s="102">
+      <c r="M37" s="105"/>
+      <c r="N37" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O37" s="104">
+      <c r="O37" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="106">
+      <c r="P37" s="107"/>
+      <c r="Q37" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R37" s="105"/>
-      <c r="S37" s="106">
+      <c r="R37" s="107"/>
+      <c r="S37" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T37" s="107"/>
-      <c r="U37" s="108">
+      <c r="T37" s="109"/>
+      <c r="U37" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V37" s="109"/>
-      <c r="W37" s="108">
+      <c r="V37" s="111"/>
+      <c r="W37" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="106">
+      <c r="X37" s="107"/>
+      <c r="Y37" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="106">
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="108">
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD37" s="109"/>
-      <c r="AE37" s="108">
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF37" s="109"/>
-      <c r="AG37" s="108">
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH37" s="104">
+      <c r="AH37" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14576,85 +14509,85 @@
       <c r="B38" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="100"/>
       <c r="F38" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G38" s="99"/>
-      <c r="H38" s="100">
+      <c r="G38" s="101"/>
+      <c r="H38" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100">
+      <c r="I38" s="101"/>
+      <c r="J38" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K38" s="101"/>
-      <c r="L38" s="102">
+      <c r="K38" s="103"/>
+      <c r="L38" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M38" s="103"/>
-      <c r="N38" s="102">
+      <c r="M38" s="105"/>
+      <c r="N38" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O38" s="104">
+      <c r="O38" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="106">
+      <c r="P38" s="107"/>
+      <c r="Q38" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R38" s="105"/>
-      <c r="S38" s="106">
+      <c r="R38" s="107"/>
+      <c r="S38" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T38" s="107"/>
-      <c r="U38" s="108">
+      <c r="T38" s="109"/>
+      <c r="U38" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V38" s="109"/>
-      <c r="W38" s="108">
+      <c r="V38" s="111"/>
+      <c r="W38" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X38" s="105"/>
-      <c r="Y38" s="106">
+      <c r="X38" s="107"/>
+      <c r="Y38" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z38" s="105"/>
-      <c r="AA38" s="106">
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="108">
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="108">
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="108">
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH38" s="104">
+      <c r="AH38" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14679,85 +14612,85 @@
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="100"/>
       <c r="F39" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G39" s="99"/>
-      <c r="H39" s="100">
+      <c r="G39" s="101"/>
+      <c r="H39" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100">
+      <c r="I39" s="101"/>
+      <c r="J39" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K39" s="101"/>
-      <c r="L39" s="102">
+      <c r="K39" s="103"/>
+      <c r="L39" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M39" s="103"/>
-      <c r="N39" s="102">
+      <c r="M39" s="105"/>
+      <c r="N39" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O39" s="104">
+      <c r="O39" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="106">
+      <c r="P39" s="107"/>
+      <c r="Q39" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R39" s="105"/>
-      <c r="S39" s="106">
+      <c r="R39" s="107"/>
+      <c r="S39" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T39" s="107"/>
-      <c r="U39" s="108">
+      <c r="T39" s="109"/>
+      <c r="U39" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V39" s="109"/>
-      <c r="W39" s="108">
+      <c r="V39" s="111"/>
+      <c r="W39" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="106">
+      <c r="X39" s="107"/>
+      <c r="Y39" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z39" s="105"/>
-      <c r="AA39" s="106">
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="108">
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="108">
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="108">
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH39" s="104">
+      <c r="AH39" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14782,85 +14715,85 @@
       <c r="B40" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="100"/>
       <c r="F40" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G40" s="99"/>
-      <c r="H40" s="100">
+      <c r="G40" s="101"/>
+      <c r="H40" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100">
+      <c r="I40" s="101"/>
+      <c r="J40" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K40" s="101"/>
-      <c r="L40" s="102">
+      <c r="K40" s="103"/>
+      <c r="L40" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M40" s="103"/>
-      <c r="N40" s="102">
+      <c r="M40" s="105"/>
+      <c r="N40" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O40" s="104">
+      <c r="O40" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="106">
+      <c r="P40" s="107"/>
+      <c r="Q40" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R40" s="105"/>
-      <c r="S40" s="106">
+      <c r="R40" s="107"/>
+      <c r="S40" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T40" s="107"/>
-      <c r="U40" s="108">
+      <c r="T40" s="109"/>
+      <c r="U40" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V40" s="109"/>
-      <c r="W40" s="108">
+      <c r="V40" s="111"/>
+      <c r="W40" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X40" s="105"/>
-      <c r="Y40" s="106">
+      <c r="X40" s="107"/>
+      <c r="Y40" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z40" s="105"/>
-      <c r="AA40" s="106">
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="108">
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD40" s="109"/>
-      <c r="AE40" s="108">
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF40" s="109"/>
-      <c r="AG40" s="108">
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH40" s="104">
+      <c r="AH40" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14885,85 +14818,85 @@
       <c r="B41" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="100"/>
       <c r="F41" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100">
+      <c r="G41" s="101"/>
+      <c r="H41" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I41" s="99"/>
-      <c r="J41" s="100">
+      <c r="I41" s="101"/>
+      <c r="J41" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K41" s="101"/>
-      <c r="L41" s="102">
+      <c r="K41" s="103"/>
+      <c r="L41" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M41" s="103"/>
-      <c r="N41" s="102">
+      <c r="M41" s="105"/>
+      <c r="N41" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O41" s="104">
+      <c r="O41" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="106">
+      <c r="P41" s="107"/>
+      <c r="Q41" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R41" s="105"/>
-      <c r="S41" s="106">
+      <c r="R41" s="107"/>
+      <c r="S41" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T41" s="107"/>
-      <c r="U41" s="108">
+      <c r="T41" s="109"/>
+      <c r="U41" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V41" s="109"/>
-      <c r="W41" s="108">
+      <c r="V41" s="111"/>
+      <c r="W41" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X41" s="105"/>
-      <c r="Y41" s="106">
+      <c r="X41" s="107"/>
+      <c r="Y41" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z41" s="105"/>
-      <c r="AA41" s="106">
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB41" s="107"/>
-      <c r="AC41" s="108">
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="108">
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF41" s="109"/>
-      <c r="AG41" s="108">
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH41" s="104">
+      <c r="AH41" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -14988,85 +14921,85 @@
       <c r="B42" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="100"/>
       <c r="F42" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100">
+      <c r="G42" s="101"/>
+      <c r="H42" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I42" s="99"/>
-      <c r="J42" s="100">
+      <c r="I42" s="101"/>
+      <c r="J42" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K42" s="101"/>
-      <c r="L42" s="102">
+      <c r="K42" s="103"/>
+      <c r="L42" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M42" s="103"/>
-      <c r="N42" s="102">
+      <c r="M42" s="105"/>
+      <c r="N42" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O42" s="104">
+      <c r="O42" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="106">
+      <c r="P42" s="107"/>
+      <c r="Q42" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R42" s="105"/>
-      <c r="S42" s="106">
+      <c r="R42" s="107"/>
+      <c r="S42" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T42" s="107"/>
-      <c r="U42" s="108">
+      <c r="T42" s="109"/>
+      <c r="U42" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V42" s="109"/>
-      <c r="W42" s="108">
+      <c r="V42" s="111"/>
+      <c r="W42" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X42" s="105"/>
-      <c r="Y42" s="106">
+      <c r="X42" s="107"/>
+      <c r="Y42" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z42" s="105"/>
-      <c r="AA42" s="106">
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="108">
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD42" s="109"/>
-      <c r="AE42" s="108">
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF42" s="109"/>
-      <c r="AG42" s="108">
+      <c r="AF42" s="111"/>
+      <c r="AG42" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH42" s="104">
+      <c r="AH42" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -15091,85 +15024,85 @@
       <c r="B43" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="100"/>
       <c r="F43" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="100">
+      <c r="G43" s="101"/>
+      <c r="H43" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100">
+      <c r="I43" s="101"/>
+      <c r="J43" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K43" s="101"/>
-      <c r="L43" s="102">
+      <c r="K43" s="103"/>
+      <c r="L43" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M43" s="103"/>
-      <c r="N43" s="102">
+      <c r="M43" s="105"/>
+      <c r="N43" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O43" s="104">
+      <c r="O43" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="106">
+      <c r="P43" s="107"/>
+      <c r="Q43" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R43" s="105"/>
-      <c r="S43" s="106">
+      <c r="R43" s="107"/>
+      <c r="S43" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T43" s="107"/>
-      <c r="U43" s="108">
+      <c r="T43" s="109"/>
+      <c r="U43" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V43" s="109"/>
-      <c r="W43" s="108">
+      <c r="V43" s="111"/>
+      <c r="W43" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X43" s="105"/>
-      <c r="Y43" s="106">
+      <c r="X43" s="107"/>
+      <c r="Y43" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z43" s="105"/>
-      <c r="AA43" s="106">
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB43" s="107"/>
-      <c r="AC43" s="108">
+      <c r="AB43" s="109"/>
+      <c r="AC43" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD43" s="109"/>
-      <c r="AE43" s="108">
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF43" s="109"/>
-      <c r="AG43" s="108">
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH43" s="104">
+      <c r="AH43" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -15194,85 +15127,85 @@
       <c r="B44" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="100"/>
       <c r="F44" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="100">
+      <c r="G44" s="101"/>
+      <c r="H44" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="100">
+      <c r="I44" s="101"/>
+      <c r="J44" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K44" s="101"/>
-      <c r="L44" s="102">
+      <c r="K44" s="103"/>
+      <c r="L44" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M44" s="103"/>
-      <c r="N44" s="102">
+      <c r="M44" s="105"/>
+      <c r="N44" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O44" s="104">
+      <c r="O44" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="106">
+      <c r="P44" s="107"/>
+      <c r="Q44" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R44" s="105"/>
-      <c r="S44" s="106">
+      <c r="R44" s="107"/>
+      <c r="S44" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T44" s="107"/>
-      <c r="U44" s="108">
+      <c r="T44" s="109"/>
+      <c r="U44" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V44" s="109"/>
-      <c r="W44" s="108">
+      <c r="V44" s="111"/>
+      <c r="W44" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X44" s="105"/>
-      <c r="Y44" s="106">
+      <c r="X44" s="107"/>
+      <c r="Y44" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z44" s="105"/>
-      <c r="AA44" s="106">
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="108">
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="108">
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="108">
+      <c r="AF44" s="111"/>
+      <c r="AG44" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH44" s="104">
+      <c r="AH44" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -15297,85 +15230,85 @@
       <c r="B45" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="100"/>
       <c r="F45" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G45" s="99"/>
-      <c r="H45" s="100">
+      <c r="G45" s="101"/>
+      <c r="H45" s="102">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100">
+      <c r="I45" s="101"/>
+      <c r="J45" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K45" s="101"/>
-      <c r="L45" s="102">
+      <c r="K45" s="103"/>
+      <c r="L45" s="104">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M45" s="103"/>
-      <c r="N45" s="102">
+      <c r="M45" s="105"/>
+      <c r="N45" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O45" s="104">
+      <c r="O45" s="106">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="106">
+      <c r="P45" s="107"/>
+      <c r="Q45" s="108">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R45" s="105"/>
-      <c r="S45" s="106">
+      <c r="R45" s="107"/>
+      <c r="S45" s="108">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T45" s="107"/>
-      <c r="U45" s="108">
+      <c r="T45" s="109"/>
+      <c r="U45" s="110">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V45" s="109"/>
-      <c r="W45" s="108">
+      <c r="V45" s="111"/>
+      <c r="W45" s="110">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="106">
+      <c r="X45" s="107"/>
+      <c r="Y45" s="108">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z45" s="105"/>
-      <c r="AA45" s="106">
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="108">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="108">
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="110">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="108">
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="110">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF45" s="109"/>
-      <c r="AG45" s="108">
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="110">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH45" s="104">
+      <c r="AH45" s="106">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -15396,38 +15329,38 @@
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="121"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="123"/>
-      <c r="W46" s="122"/>
-      <c r="X46" s="119"/>
-      <c r="Y46" s="120"/>
-      <c r="Z46" s="119"/>
-      <c r="AA46" s="120"/>
-      <c r="AB46" s="121"/>
-      <c r="AC46" s="122"/>
-      <c r="AD46" s="123"/>
-      <c r="AE46" s="122"/>
-      <c r="AF46" s="123"/>
-      <c r="AG46" s="122"/>
-      <c r="AH46" s="124"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="121"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="123"/>
+      <c r="U46" s="124"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="124"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="122"/>
+      <c r="Z46" s="121"/>
+      <c r="AA46" s="122"/>
+      <c r="AB46" s="123"/>
+      <c r="AC46" s="124"/>
+      <c r="AD46" s="125"/>
+      <c r="AE46" s="124"/>
+      <c r="AF46" s="125"/>
+      <c r="AG46" s="124"/>
+      <c r="AH46" s="126"/>
       <c r="AI46" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -15436,12 +15369,12 @@
         <f>VLOOKUP(AI46,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
+      <c r="AK46" s="83"/>
+      <c r="AL46" s="83"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="82" t="s">
-        <v>59</v>
+      <c r="A47" s="84" t="s">
+        <v>58</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -15482,7 +15415,7 @@
       <c r="AL47" s="16"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="125"/>
+      <c r="A48" s="127"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -15522,11 +15455,11 @@
       <c r="AL48" s="7"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="125"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -15540,7 +15473,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
@@ -15551,7 +15484,7 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
@@ -15568,7 +15501,7 @@
       <c r="AL49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="125"/>
+      <c r="A50" s="127"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -15611,93 +15544,93 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="126" t="s">
-        <v>115</v>
+      <c r="D51" s="128" t="s">
+        <v>114</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="126"/>
+      <c r="J51" s="128"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="126" t="s">
-        <v>116</v>
+      <c r="P51" s="128" t="s">
+        <v>115</v>
       </c>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z51" s="127"/>
-      <c r="AA51" s="127"/>
-      <c r="AB51" s="127"/>
-      <c r="AC51" s="128"/>
-      <c r="AD51" s="128"/>
+      <c r="Y51" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z51" s="129"/>
+      <c r="AA51" s="129"/>
+      <c r="AB51" s="129"/>
+      <c r="AC51" s="130"/>
+      <c r="AD51" s="130"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
-      <c r="AI51" s="129"/>
+      <c r="AI51" s="131"/>
       <c r="AL51" s="7"/>
     </row>
     <row r="52" ht="27.0" customHeight="1">
-      <c r="A52" s="130"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="131" t="s">
+      <c r="A52" s="132"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="134"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="132"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="132" t="s">
+      <c r="V52" s="132"/>
+      <c r="W52" s="132"/>
+      <c r="X52" s="132"/>
+      <c r="Y52" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="V52" s="130"/>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="133"/>
-      <c r="AD52" s="133"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="131"/>
-      <c r="AL52" s="130"/>
+      <c r="Z52" s="132"/>
+      <c r="AA52" s="132"/>
+      <c r="AB52" s="132"/>
+      <c r="AC52" s="135"/>
+      <c r="AD52" s="135"/>
+      <c r="AE52" s="132"/>
+      <c r="AF52" s="132"/>
+      <c r="AG52" s="132"/>
+      <c r="AH52" s="132"/>
+      <c r="AI52" s="133"/>
+      <c r="AL52" s="132"/>
     </row>
     <row r="53" ht="27.0" customHeight="1">
-      <c r="A53" s="130"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="131"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="132"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="132"/>
-      <c r="W53" s="130"/>
-      <c r="X53" s="130"/>
-      <c r="Y53" s="130"/>
-      <c r="Z53" s="130"/>
-      <c r="AA53" s="132"/>
-      <c r="AE53" s="130"/>
-      <c r="AF53" s="130"/>
-      <c r="AG53" s="130"/>
-      <c r="AH53" s="130"/>
-      <c r="AI53" s="131"/>
-      <c r="AL53" s="130"/>
+      <c r="A53" s="132"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="133"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="134"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="132"/>
+      <c r="R53" s="132"/>
+      <c r="S53" s="134"/>
+      <c r="W53" s="132"/>
+      <c r="X53" s="132"/>
+      <c r="Y53" s="132"/>
+      <c r="Z53" s="132"/>
+      <c r="AA53" s="134"/>
+      <c r="AE53" s="132"/>
+      <c r="AF53" s="132"/>
+      <c r="AG53" s="132"/>
+      <c r="AH53" s="132"/>
+      <c r="AI53" s="133"/>
+      <c r="AL53" s="132"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="7"/>
@@ -24481,157 +24414,157 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="136">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="137">
+        <v>5.0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="136">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="137">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="138">
+        <v>75.0</v>
+      </c>
+      <c r="B3" s="137">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="138">
+        <v>75.0</v>
+      </c>
+      <c r="E3" s="137">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="138">
+        <v>76.0</v>
+      </c>
+      <c r="B4" s="137">
+        <v>2.75</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="134">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="135">
-        <v>5.0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="134">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="135">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="136">
-        <v>75.0</v>
-      </c>
-      <c r="B3" s="135">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="136">
-        <v>75.0</v>
-      </c>
-      <c r="E3" s="135">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="136">
-        <v>76.0</v>
-      </c>
-      <c r="B4" s="135">
+      <c r="E4" s="137">
         <v>2.75</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="136" t="s">
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="138">
+        <v>79.0</v>
+      </c>
+      <c r="B5" s="137">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="135">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="136">
-        <v>79.0</v>
-      </c>
-      <c r="B5" s="135">
+      <c r="E5" s="137">
         <v>2.5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="136" t="s">
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="138">
+        <v>82.0</v>
+      </c>
+      <c r="B6" s="137">
+        <v>2.25</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="135">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="136">
-        <v>82.0</v>
-      </c>
-      <c r="B6" s="135">
+      <c r="E6" s="137">
         <v>2.25</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="136" t="s">
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="139">
+        <v>85.0</v>
+      </c>
+      <c r="B7" s="140">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="135">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="137">
-        <v>85.0</v>
-      </c>
-      <c r="B7" s="138">
+      <c r="E7" s="142">
         <v>2.0</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="139" t="s">
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="143">
+        <v>88.0</v>
+      </c>
+      <c r="B8" s="144">
+        <v>1.75</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="140">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="141">
-        <v>88.0</v>
-      </c>
-      <c r="B8" s="142">
+      <c r="E8" s="137">
         <v>1.75</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="136" t="s">
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="138">
+        <v>91.0</v>
+      </c>
+      <c r="B9" s="137">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="135">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="136">
-        <v>91.0</v>
-      </c>
-      <c r="B9" s="135">
+      <c r="E9" s="137">
         <v>1.5</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="136" t="s">
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="138">
+        <v>94.0</v>
+      </c>
+      <c r="B10" s="137">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="135">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="136">
-        <v>94.0</v>
-      </c>
-      <c r="B10" s="135">
+      <c r="E10" s="137">
         <v>1.25</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="136" t="s">
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="138">
+        <v>97.0</v>
+      </c>
+      <c r="B11" s="137">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="135">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="136">
-        <v>97.0</v>
-      </c>
-      <c r="B11" s="135">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="135">
+      <c r="E11" s="137">
         <v>1.0</v>
       </c>
     </row>
@@ -25647,371 +25580,371 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="C1" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="D1" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="E1" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="F1" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="G1" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="H1" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="I1" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="143" t="s">
+      <c r="J1" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="143" t="s">
+      <c r="K1" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="L1" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="143" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="143">
+      <c r="A2" s="145">
         <v>30.0</v>
       </c>
-      <c r="B2" s="143">
+      <c r="B2" s="145">
         <v>20.0</v>
       </c>
-      <c r="C2" s="143">
+      <c r="C2" s="145">
         <v>10.0</v>
       </c>
-      <c r="D2" s="143">
+      <c r="D2" s="145">
         <v>30.0</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="145">
         <v>30.0</v>
       </c>
-      <c r="F2" s="143">
+      <c r="F2" s="145">
         <v>15.0</v>
       </c>
-      <c r="G2" s="143">
+      <c r="G2" s="145">
         <v>20.0</v>
       </c>
-      <c r="H2" s="143">
+      <c r="H2" s="145">
         <v>15.0</v>
       </c>
-      <c r="I2" s="143">
+      <c r="I2" s="145">
         <v>15.0</v>
       </c>
-      <c r="J2" s="143">
+      <c r="J2" s="145">
         <v>15.0</v>
       </c>
-      <c r="K2" s="143">
+      <c r="K2" s="145">
         <v>15.0</v>
       </c>
-      <c r="L2" s="143">
+      <c r="L2" s="145">
         <v>15.0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="143">
+      <c r="A3" s="145">
         <v>23.0</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="145">
         <v>20.0</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="145">
         <v>8.0</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="145">
         <v>23.0</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="145">
         <v>23.0</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="145">
         <v>12.0</v>
       </c>
-      <c r="G3" s="143">
+      <c r="G3" s="145">
         <v>15.0</v>
       </c>
-      <c r="H3" s="143">
+      <c r="H3" s="145">
         <v>0.0</v>
       </c>
-      <c r="I3" s="143">
+      <c r="I3" s="145">
         <v>15.0</v>
       </c>
-      <c r="J3" s="143">
+      <c r="J3" s="145">
         <v>12.0</v>
       </c>
-      <c r="K3" s="143">
+      <c r="K3" s="145">
         <v>8.0</v>
       </c>
-      <c r="L3" s="143">
+      <c r="L3" s="145">
         <v>15.0</v>
       </c>
-      <c r="M3" s="143">
+      <c r="M3" s="145">
         <f t="shared" ref="M3:M9" si="1">SUM(A3:L3)</f>
         <v>174</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="143">
+      <c r="A4" s="145">
         <v>23.0</v>
       </c>
-      <c r="B4" s="143">
+      <c r="B4" s="145">
         <v>15.0</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="145">
         <v>10.0</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="145">
         <v>30.0</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="145">
         <v>30.0</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="145">
         <v>15.0</v>
       </c>
-      <c r="G4" s="143">
+      <c r="G4" s="145">
         <v>15.0</v>
       </c>
-      <c r="H4" s="143">
+      <c r="H4" s="145">
         <v>15.0</v>
       </c>
-      <c r="I4" s="143">
+      <c r="I4" s="145">
         <v>12.0</v>
       </c>
-      <c r="J4" s="143">
+      <c r="J4" s="145">
         <v>12.0</v>
       </c>
-      <c r="K4" s="143">
+      <c r="K4" s="145">
         <v>0.0</v>
       </c>
-      <c r="L4" s="143">
+      <c r="L4" s="145">
         <v>0.0</v>
       </c>
-      <c r="M4" s="143">
+      <c r="M4" s="145">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="143">
+      <c r="A5" s="145">
         <v>30.0</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="145">
         <v>15.0</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="145">
         <v>8.0</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="145">
         <v>23.0</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="145">
         <v>15.0</v>
       </c>
-      <c r="F5" s="143">
+      <c r="F5" s="145">
         <v>1.0</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="145">
         <v>15.0</v>
       </c>
-      <c r="H5" s="143">
+      <c r="H5" s="145">
         <v>12.0</v>
       </c>
-      <c r="I5" s="143">
+      <c r="I5" s="145">
         <v>12.0</v>
       </c>
-      <c r="J5" s="143">
+      <c r="J5" s="145">
         <v>12.0</v>
       </c>
-      <c r="K5" s="143">
+      <c r="K5" s="145">
         <v>0.0</v>
       </c>
-      <c r="L5" s="143">
+      <c r="L5" s="145">
         <v>0.0</v>
       </c>
-      <c r="M5" s="143">
+      <c r="M5" s="145">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="143">
+      <c r="A6" s="145">
         <v>23.0</v>
       </c>
-      <c r="B6" s="143">
+      <c r="B6" s="145">
         <v>15.0</v>
       </c>
-      <c r="C6" s="143">
+      <c r="C6" s="145">
         <v>10.0</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="145">
         <v>23.0</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="145">
         <v>23.0</v>
       </c>
-      <c r="F6" s="143">
+      <c r="F6" s="145">
         <v>15.0</v>
       </c>
-      <c r="G6" s="143">
+      <c r="G6" s="145">
         <v>15.0</v>
       </c>
-      <c r="H6" s="143">
+      <c r="H6" s="145">
         <v>1.0</v>
       </c>
-      <c r="I6" s="143">
+      <c r="I6" s="145">
         <v>12.0</v>
       </c>
-      <c r="J6" s="143">
+      <c r="J6" s="145">
         <v>15.0</v>
       </c>
-      <c r="K6" s="143">
+      <c r="K6" s="145">
         <v>0.0</v>
       </c>
-      <c r="L6" s="143">
+      <c r="L6" s="145">
         <v>0.0</v>
       </c>
-      <c r="M6" s="143">
+      <c r="M6" s="145">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="143">
+      <c r="A7" s="145">
         <v>23.0</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="145">
         <v>15.0</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="145">
         <v>8.0</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="145">
         <v>23.0</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="145">
         <v>23.0</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="145">
         <v>12.0</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="145">
         <v>15.0</v>
       </c>
-      <c r="H7" s="143">
+      <c r="H7" s="145">
         <v>12.0</v>
       </c>
-      <c r="I7" s="143">
+      <c r="I7" s="145">
         <v>12.0</v>
       </c>
-      <c r="J7" s="143">
+      <c r="J7" s="145">
         <v>8.0</v>
       </c>
-      <c r="K7" s="143">
+      <c r="K7" s="145">
         <v>8.0</v>
       </c>
-      <c r="L7" s="143">
+      <c r="L7" s="145">
         <v>0.0</v>
       </c>
-      <c r="M7" s="143">
+      <c r="M7" s="145">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="143">
+      <c r="A8" s="145">
         <v>23.0</v>
       </c>
-      <c r="B8" s="143">
+      <c r="B8" s="145">
         <v>15.0</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="145">
         <v>8.0</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="145">
         <v>23.0</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="145">
         <v>23.0</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="145">
         <v>12.0</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="145">
         <v>10.0</v>
       </c>
-      <c r="H8" s="143">
+      <c r="H8" s="145">
         <v>4.0</v>
       </c>
-      <c r="I8" s="143">
+      <c r="I8" s="145">
         <v>12.0</v>
       </c>
-      <c r="J8" s="143">
+      <c r="J8" s="145">
         <v>8.0</v>
       </c>
-      <c r="K8" s="143">
+      <c r="K8" s="145">
         <v>0.0</v>
       </c>
-      <c r="L8" s="143">
+      <c r="L8" s="145">
         <v>0.0</v>
       </c>
-      <c r="M8" s="143">
+      <c r="M8" s="145">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="143">
+      <c r="A9" s="145">
         <v>23.0</v>
       </c>
-      <c r="B9" s="143">
+      <c r="B9" s="145">
         <v>20.0</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="145">
         <v>10.0</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="145">
         <v>23.0</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="145">
         <v>15.0</v>
       </c>
-      <c r="F9" s="143">
+      <c r="F9" s="145">
         <v>12.0</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="145">
         <v>10.0</v>
       </c>
-      <c r="H9" s="143">
+      <c r="H9" s="145">
         <v>1.0</v>
       </c>
-      <c r="I9" s="143">
+      <c r="I9" s="145">
         <v>12.0</v>
       </c>
-      <c r="J9" s="143">
+      <c r="J9" s="145">
         <v>15.0</v>
       </c>
-      <c r="K9" s="143">
+      <c r="K9" s="145">
         <v>8.0</v>
       </c>
-      <c r="L9" s="143">
+      <c r="L9" s="145">
         <v>0.0</v>
       </c>
-      <c r="M9" s="143">
+      <c r="M9" s="145">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
